--- a/Load/src/ontology/Microbiome/doc/microbiome_terms.xlsx
+++ b/Load/src/ontology/Microbiome/doc/microbiome_terms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="9560" tabRatio="625" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="2020" yWindow="5420" windowWidth="29100" windowHeight="14100" tabRatio="625" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="IRI mappings" sheetId="13" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="microbiome terms" sheetId="14" r:id="rId6"/>
     <sheet name="term need imports" sheetId="15" r:id="rId7"/>
     <sheet name="ontology mapping" sheetId="16" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11041" uniqueCount="2730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11084" uniqueCount="2738">
   <si>
     <t>Name</t>
   </si>
@@ -8181,9 +8182,6 @@
     <t>add to Eupath under process</t>
   </si>
   <si>
-    <t>consult with ENVO developers, or add built environment information to Eupath under ICE</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_00000070</t>
   </si>
   <si>
@@ -8193,9 +8191,6 @@
     <t>add to Eupath under ICE</t>
   </si>
   <si>
-    <t>how about clarifying it is child diet</t>
-  </si>
-  <si>
     <t>how about clarifying it is child diet (by month)</t>
   </si>
   <si>
@@ -8233,6 +8228,36 @@
   </si>
   <si>
     <t>investigation title</t>
+  </si>
+  <si>
+    <t>Unclear terms</t>
+  </si>
+  <si>
+    <t>terms need definitions</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_33281</t>
+  </si>
+  <si>
+    <t>antimicrobial agent</t>
+  </si>
+  <si>
+    <t>mapped term label</t>
+  </si>
+  <si>
+    <t>mapped term IRI</t>
+  </si>
+  <si>
+    <t>labour and delivery / baby's delivery</t>
+  </si>
+  <si>
+    <t>child diet</t>
+  </si>
+  <si>
+    <t>child diet by month</t>
+  </si>
+  <si>
+    <t>how about clarifying it is child diet, add under  http://www.ebi.ac.uk/efo/EFO_0002755 diet, (term need to import)</t>
   </si>
 </sst>
 </file>
@@ -8945,7 +8970,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="333">
+  <cellStyleXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9279,6 +9304,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9400,7 +9448,7 @@
     <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="333">
+  <cellStyles count="356">
     <cellStyle name="20% - Accent1" xfId="208" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="212" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="216" builtinId="38" customBuiltin="1"/>
@@ -9710,6 +9758,29 @@
     <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="196" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="192" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="193" builtinId="17" customBuiltin="1"/>
@@ -44221,18 +44292,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
-    <col min="5" max="5" width="51.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.5" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="41.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -44258,6 +44333,12 @@
         <v>2698</v>
       </c>
       <c r="H1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="J1" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -44271,11 +44352,11 @@
       <c r="D2" t="s">
         <v>1226</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1749</v>
+      <c r="F2" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2700</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -44291,11 +44372,11 @@
       <c r="D3" t="s">
         <v>1709</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>1774</v>
+      <c r="F3" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2700</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -44311,11 +44392,11 @@
       <c r="D4" t="s">
         <v>2449</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>1774</v>
+      <c r="F4" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2700</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -44331,11 +44412,17 @@
       <c r="D5" t="s">
         <v>2447</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>1774</v>
+      <c r="F5" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2731</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -44348,19 +44435,22 @@
       <c r="C6" t="s">
         <v>1176</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>2453</v>
       </c>
       <c r="E6" t="s">
         <v>1710</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>1774</v>
+      <c r="F6" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2700</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>2734</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>2711</v>
       </c>
     </row>
@@ -44380,21 +44470,17 @@
       <c r="F7" t="s">
         <v>1758</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>1749</v>
+      <c r="G7" t="s">
+        <v>2700</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>1758</v>
+        <v>2712</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>2712</v>
-      </c>
-      <c r="J7" s="10" t="s">
         <v>2713</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>2714</v>
-      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -44406,19 +44492,16 @@
       <c r="D8" t="s">
         <v>1234</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>1758</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="10" t="s">
-        <v>2549</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>1234</v>
-      </c>
+      <c r="G8" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -44427,20 +44510,23 @@
       <c r="B9" t="s">
         <v>2636</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>1758</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>2715</v>
+      <c r="G9" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="5" t="s">
+        <v>1116</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>2714</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -44455,12 +44541,13 @@
       <c r="D10" t="s">
         <v>2693</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>1774</v>
-      </c>
+      <c r="F10" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -44475,12 +44562,13 @@
       <c r="D11" t="s">
         <v>2451</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>1774</v>
-      </c>
+      <c r="F11" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -44495,16 +44583,20 @@
       <c r="D12" t="s">
         <v>1277</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>1774</v>
-      </c>
+      <c r="F12" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>2716</v>
+        <v>2735</v>
       </c>
       <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>2737</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -44519,16 +44611,20 @@
       <c r="D13" t="s">
         <v>2439</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>1774</v>
-      </c>
+      <c r="F13" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>2717</v>
+        <v>2736</v>
       </c>
       <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>2715</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
@@ -44543,17 +44639,17 @@
       <c r="E14" t="s">
         <v>1380</v>
       </c>
-      <c r="F14" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>1774</v>
-      </c>
+      <c r="F14" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>1774</v>
+      </c>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11">
@@ -44569,19 +44665,22 @@
       <c r="D15" t="s">
         <v>1713</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>1749</v>
+      <c r="F15" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2700</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I15" s="10"/>
+        <v>2716</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>2717</v>
+      </c>
       <c r="J15" s="10" t="s">
-        <v>2718</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>2719</v>
-      </c>
+        <v>1774</v>
+      </c>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -44596,22 +44695,22 @@
       <c r="E16" t="s">
         <v>1584</v>
       </c>
-      <c r="F16" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>1749</v>
+      <c r="F16" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2700</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I16" s="10"/>
+        <v>2718</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>2719</v>
+      </c>
       <c r="J16" s="10" t="s">
-        <v>2720</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>2721</v>
-      </c>
+        <v>1774</v>
+      </c>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
@@ -44626,22 +44725,22 @@
       <c r="E17" t="s">
         <v>1585</v>
       </c>
-      <c r="F17" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>1749</v>
+      <c r="F17" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2700</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I17" s="10"/>
+        <v>2720</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>2721</v>
+      </c>
       <c r="J17" s="10" t="s">
-        <v>2722</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>2723</v>
-      </c>
+        <v>1774</v>
+      </c>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
@@ -44653,17 +44752,20 @@
       <c r="D18" t="s">
         <v>1080</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>1758</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>2715</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="G18" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>2714</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
@@ -44678,22 +44780,22 @@
       <c r="E19" t="s">
         <v>1586</v>
       </c>
-      <c r="F19" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>1749</v>
+      <c r="F19" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2700</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I19" s="10"/>
+        <v>2722</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>945</v>
+      </c>
       <c r="J19" s="10" t="s">
-        <v>2724</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>945</v>
-      </c>
+        <v>1774</v>
+      </c>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
@@ -44708,10 +44810,13 @@
       <c r="D20" t="s">
         <v>2454</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="F20" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -44731,10 +44836,13 @@
       <c r="E21" t="s">
         <v>1719</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="F21" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -44748,10 +44856,13 @@
       <c r="D22" t="s">
         <v>1089</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="F22" s="11" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>1758</v>
       </c>
     </row>
@@ -44768,13 +44879,13 @@
       <c r="E23" t="s">
         <v>1592</v>
       </c>
-      <c r="F23" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="F23" s="11" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -44791,13 +44902,13 @@
       <c r="E24" t="s">
         <v>1256</v>
       </c>
-      <c r="F24" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="F24" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -44814,13 +44925,13 @@
       <c r="E25" t="s">
         <v>1262</v>
       </c>
-      <c r="F25" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H25" s="10" t="s">
+      <c r="F25" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -44837,13 +44948,13 @@
       <c r="E26" t="s">
         <v>1266</v>
       </c>
-      <c r="F26" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H26" s="10" t="s">
+      <c r="F26" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -44860,13 +44971,13 @@
       <c r="E27" t="s">
         <v>1268</v>
       </c>
-      <c r="F27" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="F27" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -44883,13 +44994,13 @@
       <c r="E28" t="s">
         <v>1274</v>
       </c>
-      <c r="F28" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H28" s="10" t="s">
+      <c r="F28" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -44906,13 +45017,13 @@
       <c r="E29" t="s">
         <v>1276</v>
       </c>
-      <c r="F29" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H29" s="10" t="s">
+      <c r="F29" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -44929,13 +45040,13 @@
       <c r="E30" t="s">
         <v>1282</v>
       </c>
-      <c r="F30" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H30" s="10" t="s">
+      <c r="F30" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -44949,14 +45060,17 @@
       <c r="D31" t="s">
         <v>1077</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>1758</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>2715</v>
+      <c r="G31" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>2714</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -44975,15 +45089,15 @@
       <c r="F32" t="s">
         <v>1774</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="G32" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>2547</v>
       </c>
@@ -44999,15 +45113,15 @@
       <c r="F33" t="s">
         <v>1774</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="G33" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -45023,14 +45137,14 @@
       <c r="F34" t="s">
         <v>1774</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="G34" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>2551</v>
       </c>
@@ -45040,14 +45154,17 @@
       <c r="D35" t="s">
         <v>1236</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H35" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="G35" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>2518</v>
       </c>
@@ -45060,14 +45177,17 @@
       <c r="D36" t="s">
         <v>2692</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="F36" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>2521</v>
       </c>
@@ -45077,14 +45197,17 @@
       <c r="D37" t="s">
         <v>1180</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="F37" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>2522</v>
       </c>
@@ -45094,14 +45217,17 @@
       <c r="D38" t="s">
         <v>1196</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="F38" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>2520</v>
       </c>
@@ -45114,14 +45240,17 @@
       <c r="D39" t="s">
         <v>2456</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="F39" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>2519</v>
       </c>
@@ -45134,14 +45263,17 @@
       <c r="D40" t="s">
         <v>2455</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="F40" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>2529</v>
       </c>
@@ -45154,14 +45286,17 @@
       <c r="D41" t="s">
         <v>2463</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="F41" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>2530</v>
       </c>
@@ -45174,14 +45309,17 @@
       <c r="D42" t="s">
         <v>2464</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="F42" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -45194,17 +45332,17 @@
       <c r="E43" t="s">
         <v>1255</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="10" t="s">
         <v>1758</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H43" s="10" t="s">
+      <c r="G43" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J43" s="10" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>2531</v>
       </c>
@@ -45217,14 +45355,17 @@
       <c r="D44" t="s">
         <v>2465</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="F44" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>2532</v>
       </c>
@@ -45237,14 +45378,17 @@
       <c r="D45" t="s">
         <v>2466</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="F45" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>2523</v>
       </c>
@@ -45260,16 +45404,19 @@
       <c r="E46" t="s">
         <v>1716</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="F46" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>2524</v>
       </c>
@@ -45285,16 +45432,19 @@
       <c r="E47" t="s">
         <v>1717</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="F47" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>2525</v>
       </c>
@@ -45310,14 +45460,17 @@
       <c r="E48" t="s">
         <v>1718</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="J48" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
@@ -45332,19 +45485,19 @@
       <c r="E49" t="s">
         <v>1462</v>
       </c>
-      <c r="F49" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>2715</v>
-      </c>
-      <c r="J49" s="10"/>
+      <c r="F49" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="J49" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>2714</v>
+      </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
@@ -45359,10 +45512,13 @@
       <c r="E50" t="s">
         <v>2691</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H50" s="10" t="s">
+      <c r="F50" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J50" s="10" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -45379,10 +45535,13 @@
       <c r="D51" t="s">
         <v>2467</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H51" s="5" t="s">
+      <c r="F51" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -45396,10 +45555,13 @@
       <c r="D52" t="s">
         <v>1160</v>
       </c>
-      <c r="G52" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H52" s="10" t="s">
+      <c r="F52" s="10" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J52" s="10" t="s">
         <v>1758</v>
       </c>
     </row>
@@ -45413,10 +45575,13 @@
       <c r="D53" t="s">
         <v>1148</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H53" s="10" t="s">
+      <c r="F53" s="10" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J53" s="10" t="s">
         <v>1758</v>
       </c>
     </row>
@@ -45433,10 +45598,13 @@
       <c r="D54" t="s">
         <v>2468</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H54" s="5" t="s">
+      <c r="F54" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -45453,10 +45621,13 @@
       <c r="D55" t="s">
         <v>2470</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H55" s="5" t="s">
+      <c r="F55" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -45473,10 +45644,13 @@
       <c r="D56" t="s">
         <v>1230</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H56" s="5" t="s">
+      <c r="F56" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -45490,10 +45664,13 @@
       <c r="D57" t="s">
         <v>1208</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H57" s="5" t="s">
+      <c r="F57" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J57" s="5" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -45507,13 +45684,16 @@
       <c r="D58" t="s">
         <v>1106</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H58" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>1758</v>
       </c>
-      <c r="I58" s="10"/>
+      <c r="G58" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
@@ -45528,14 +45708,17 @@
       <c r="D59" t="s">
         <v>2471</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>2725</v>
+      <c r="F59" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>2723</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -45548,14 +45731,17 @@
       <c r="D60" t="s">
         <v>1252</v>
       </c>
-      <c r="G60" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>2726</v>
+      <c r="F60" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>2724</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -45568,20 +45754,23 @@
       <c r="D61" t="s">
         <v>1198</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>1749</v>
+      <c r="F61" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2700</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>1774</v>
+        <v>2726</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>2727</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>2728</v>
+        <v>1774</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>2729</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -45597,13 +45786,13 @@
       <c r="E62" t="s">
         <v>1572</v>
       </c>
-      <c r="F62" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H62" s="10" t="s">
+      <c r="F62" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J62" s="10" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -45627,13 +45816,13 @@
         <v>2700</v>
       </c>
       <c r="H63" t="s">
+        <v>2708</v>
+      </c>
+      <c r="J63" t="s">
         <v>2707</v>
       </c>
-      <c r="I63" t="s">
+      <c r="K63" t="s">
         <v>2709</v>
-      </c>
-      <c r="J63" t="s">
-        <v>2708</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -45655,14 +45844,14 @@
       <c r="G64" t="s">
         <v>2700</v>
       </c>
-      <c r="I64" t="s">
+      <c r="H64" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K64" t="s">
         <v>2703</v>
       </c>
-      <c r="J64" t="s">
-        <v>2704</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>2526</v>
       </c>
@@ -45678,11 +45867,11 @@
       <c r="G65" t="s">
         <v>2700</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>2555</v>
       </c>
@@ -45698,11 +45887,11 @@
       <c r="G66" t="s">
         <v>2700</v>
       </c>
-      <c r="H66" t="s">
+      <c r="J66" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>1033</v>
       </c>
@@ -45721,11 +45910,11 @@
       <c r="G67" t="s">
         <v>2700</v>
       </c>
-      <c r="H67" t="s">
+      <c r="J67" t="s">
         <v>2706</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>1075</v>
       </c>
@@ -45741,14 +45930,14 @@
       <c r="G68" t="s">
         <v>2700</v>
       </c>
-      <c r="H68" t="s">
+      <c r="J68" t="s">
         <v>2701</v>
       </c>
-      <c r="I68" t="s">
+      <c r="K68" t="s">
         <v>2702</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>2546</v>
       </c>
@@ -45767,11 +45956,11 @@
       <c r="G69" t="s">
         <v>2700</v>
       </c>
-      <c r="H69" t="s">
+      <c r="J69" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -45788,7 +45977,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>2497</v>
       </c>
@@ -45799,7 +45988,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>2501</v>
       </c>
@@ -45810,7 +45999,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>910</v>
       </c>
@@ -45827,7 +46016,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -45844,7 +46033,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>2544</v>
       </c>
@@ -45855,7 +46044,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -45872,7 +46061,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -45889,7 +46078,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -45906,7 +46095,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>164</v>
       </c>
@@ -45923,7 +46112,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -47281,7 +47470,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>665</v>
       </c>
@@ -47298,7 +47487,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>2560</v>
       </c>
@@ -47309,7 +47498,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>344</v>
       </c>
@@ -47326,7 +47515,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>347</v>
       </c>
@@ -47343,7 +47532,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>961</v>
       </c>
@@ -47360,7 +47549,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>356</v>
       </c>
@@ -47377,7 +47566,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
         <v>362</v>
       </c>
@@ -47394,7 +47583,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>365</v>
       </c>
@@ -47411,7 +47600,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>368</v>
       </c>
@@ -47428,7 +47617,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
         <v>371</v>
       </c>
@@ -47445,7 +47634,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
         <v>913</v>
       </c>
@@ -47462,9 +47651,9 @@
         <v>1774</v>
       </c>
       <c r="G171" s="10"/>
-      <c r="H171" s="10"/>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="J171" s="10"/>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
         <v>2491</v>
       </c>
@@ -47481,7 +47670,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
         <v>979</v>
       </c>
@@ -47498,7 +47687,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
         <v>377</v>
       </c>
@@ -47515,7 +47704,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>380</v>
       </c>
@@ -47532,7 +47721,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
         <v>383</v>
       </c>
@@ -47815,7 +48004,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -47832,7 +48021,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>47</v>
       </c>
@@ -47849,9 +48038,9 @@
         <v>1774</v>
       </c>
       <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194" s="10"/>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>50</v>
       </c>
@@ -47868,9 +48057,9 @@
         <v>1774</v>
       </c>
       <c r="G195" s="10"/>
-      <c r="H195" s="10"/>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195" s="10"/>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>65</v>
       </c>
@@ -47887,9 +48076,9 @@
         <v>1774</v>
       </c>
       <c r="G196" s="10"/>
-      <c r="H196" s="10"/>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="J196" s="10"/>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>56</v>
       </c>
@@ -47906,9 +48095,9 @@
         <v>1774</v>
       </c>
       <c r="G197" s="10"/>
-      <c r="H197" s="10"/>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="J197" s="10"/>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>68</v>
       </c>
@@ -47925,9 +48114,9 @@
         <v>1774</v>
       </c>
       <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="J198" s="10"/>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>77</v>
       </c>
@@ -47944,9 +48133,9 @@
         <v>1774</v>
       </c>
       <c r="G199" s="10"/>
-      <c r="H199" s="10"/>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="J199" s="10"/>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>80</v>
       </c>
@@ -47963,9 +48152,9 @@
         <v>1774</v>
       </c>
       <c r="G200" s="10"/>
-      <c r="H200" s="10"/>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="J200" s="10"/>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>86</v>
       </c>
@@ -47982,7 +48171,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -47999,7 +48188,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>92</v>
       </c>
@@ -48016,7 +48205,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>95</v>
       </c>
@@ -48033,7 +48222,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>98</v>
       </c>
@@ -48050,10 +48239,10 @@
         <v>1774</v>
       </c>
       <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
-      <c r="I205" s="10"/>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="J205" s="10"/>
+      <c r="K205" s="10"/>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>101</v>
       </c>
@@ -48070,10 +48259,10 @@
         <v>1774</v>
       </c>
       <c r="G206" s="10"/>
-      <c r="H206" s="10"/>
-      <c r="I206" s="10"/>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="J206" s="10"/>
+      <c r="K206" s="10"/>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>104</v>
       </c>
@@ -48090,10 +48279,10 @@
         <v>1774</v>
       </c>
       <c r="G207" s="10"/>
-      <c r="H207" s="10"/>
-      <c r="I207" s="10"/>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="J207" s="10"/>
+      <c r="K207" s="10"/>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>107</v>
       </c>
@@ -48110,10 +48299,10 @@
         <v>1774</v>
       </c>
       <c r="G208" s="10"/>
-      <c r="H208" s="10"/>
-      <c r="I208" s="10"/>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="J208" s="10"/>
+      <c r="K208" s="10"/>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
         <v>113</v>
       </c>
@@ -48130,10 +48319,10 @@
         <v>1774</v>
       </c>
       <c r="G209" s="10"/>
-      <c r="H209" s="10"/>
-      <c r="I209" s="10"/>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="J209" s="10"/>
+      <c r="K209" s="10"/>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
         <v>116</v>
       </c>
@@ -48150,10 +48339,10 @@
         <v>1774</v>
       </c>
       <c r="G210" s="10"/>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="J210" s="10"/>
+      <c r="K210" s="10"/>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
         <v>119</v>
       </c>
@@ -48170,10 +48359,10 @@
         <v>1774</v>
       </c>
       <c r="G211" s="10"/>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10"/>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="J211" s="10"/>
+      <c r="K211" s="10"/>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
         <v>125</v>
       </c>
@@ -48190,7 +48379,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
         <v>970</v>
       </c>
@@ -48207,7 +48396,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
         <v>128</v>
       </c>
@@ -48224,7 +48413,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
         <v>131</v>
       </c>
@@ -48241,7 +48430,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
         <v>134</v>
       </c>
@@ -48258,7 +48447,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
         <v>140</v>
       </c>
@@ -48275,9 +48464,9 @@
         <v>1774</v>
       </c>
       <c r="G217" s="10"/>
-      <c r="H217" s="10"/>
-    </row>
-    <row r="218" spans="1:9">
+      <c r="J217" s="10"/>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
         <v>413</v>
       </c>
@@ -48294,7 +48483,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
         <v>416</v>
       </c>
@@ -48311,7 +48500,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
         <v>419</v>
       </c>
@@ -48328,7 +48517,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
         <v>422</v>
       </c>
@@ -48345,7 +48534,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
         <v>425</v>
       </c>
@@ -48362,7 +48551,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
         <v>428</v>
       </c>
@@ -48379,7 +48568,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
         <v>431</v>
       </c>
@@ -52040,4 +52229,64 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Load/src/ontology/Microbiome/doc/microbiome_terms.xlsx
+++ b/Load/src/ontology/Microbiome/doc/microbiome_terms.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="5420" windowWidth="29100" windowHeight="14100" tabRatio="625" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="7160" yWindow="4700" windowWidth="25600" windowHeight="14420" tabRatio="625" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="IRI mappings" sheetId="13" r:id="rId1"/>
+    <sheet name="IRI mappings(webProtege)" sheetId="13" r:id="rId1"/>
     <sheet name="Todo" sheetId="4" r:id="rId2"/>
     <sheet name="Todo by Dan" sheetId="11" r:id="rId3"/>
     <sheet name="synonym" sheetId="9" r:id="rId4"/>
@@ -15,7 +15,7 @@
     <sheet name="microbiome terms" sheetId="14" r:id="rId6"/>
     <sheet name="term need imports" sheetId="15" r:id="rId7"/>
     <sheet name="ontology mapping" sheetId="16" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId9"/>
+    <sheet name="ToDo in ontology" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11084" uniqueCount="2738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11153" uniqueCount="2815">
   <si>
     <t>Name</t>
   </si>
@@ -8161,12 +8161,6 @@
     <t>comment on investigation</t>
   </si>
   <si>
-    <t>use ontological label</t>
-  </si>
-  <si>
-    <t>add to EuPath under protocol?</t>
-  </si>
-  <si>
     <t>is it same as collection date</t>
   </si>
   <si>
@@ -8191,9 +8185,6 @@
     <t>add to Eupath under ICE</t>
   </si>
   <si>
-    <t>how about clarifying it is child diet (by month)</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/EUPATH_0000494</t>
   </si>
   <si>
@@ -8215,15 +8206,9 @@
     <t>http://purl.obolibrary.org/obo/ENVO_00010483</t>
   </si>
   <si>
-    <t>subject ID?</t>
-  </si>
-  <si>
     <t>surface of sample source?</t>
   </si>
   <si>
-    <t>project title/study title?</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0001622</t>
   </si>
   <si>
@@ -8248,23 +8233,269 @@
     <t>mapped term IRI</t>
   </si>
   <si>
-    <t>labour and delivery / baby's delivery</t>
-  </si>
-  <si>
-    <t>child diet</t>
-  </si>
-  <si>
     <t>child diet by month</t>
   </si>
   <si>
-    <t>how about clarifying it is child diet, add under  http://www.ebi.ac.uk/efo/EFO_0002755 diet, (term need to import)</t>
+    <t>environment information</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0000493</t>
+  </si>
+  <si>
+    <t>family identifier</t>
+  </si>
+  <si>
+    <t>information of whether family move</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0000542</t>
+  </si>
+  <si>
+    <t>location of specimen collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ebi.ac.uk/efo/EFO_0002755 </t>
+  </si>
+  <si>
+    <t>need import</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_23888/http://www.ebi.ac.uk/efo/EFO_0007010</t>
+  </si>
+  <si>
+    <t>drug/drug use measurement</t>
+  </si>
+  <si>
+    <t>it seems more than one term need to use for describe it.</t>
+  </si>
+  <si>
+    <t>Is this mapping correct? Shall we reverse the mapping for two terms?</t>
+  </si>
+  <si>
+    <t>the description trimmed down, need to check MiXS set to get the full description</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UBERON_0000463</t>
+  </si>
+  <si>
+    <t>organism substance</t>
+  </si>
+  <si>
+    <t>multicellular anatomical structure</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UBERON_0010000</t>
+  </si>
+  <si>
+    <t>common name of organism</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0000512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body habitat behavior </t>
+  </si>
+  <si>
+    <t>add to EuPath under GO:behavior (proposed definition: the general condition of the body as outwardly apparent: any constitutional tendency or weakness)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ERO_0002033</t>
+  </si>
+  <si>
+    <t>family relationship</t>
+  </si>
+  <si>
+    <t>host information</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UBERON_0000105</t>
+  </si>
+  <si>
+    <t>life cycle stage</t>
+  </si>
+  <si>
+    <t>add to Eupath under data item</t>
+  </si>
+  <si>
+    <t>host mass at specimen collection</t>
+  </si>
+  <si>
+    <t>number of child occupants in a household/dwelling?</t>
+  </si>
+  <si>
+    <t>number of human occupants in a household/dwelling?</t>
+  </si>
+  <si>
+    <t>add to EuPath under data item</t>
+  </si>
+  <si>
+    <t>labor and delivery / baby's delivery</t>
+  </si>
+  <si>
+    <t>percent adult occupants in a household/dwelling</t>
+  </si>
+  <si>
+    <t>percent male occupants in a household/dwelling</t>
+  </si>
+  <si>
+    <t>other clinical information?</t>
+  </si>
+  <si>
+    <t>information of class of antibiotics given to mom</t>
+  </si>
+  <si>
+    <t>information of whether antibiotics given to mom</t>
+  </si>
+  <si>
+    <t>information of trimester antibiotics given to mom</t>
+  </si>
+  <si>
+    <t>environmental pets or farm animals information</t>
+  </si>
+  <si>
+    <t>add to Eupath under ICE? Can use 'dwelling animal information' (EUPATH_0000339) [A dwelling information about animal living in a human dwelling.]? Current term is under clinical information. It is means only applied to human.</t>
+  </si>
+  <si>
+    <t>SO:region or ICE?</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600047</t>
+  </si>
+  <si>
+    <t>sequencing protocol</t>
+  </si>
+  <si>
+    <t>add to EuPath under protocol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001891</t>
+  </si>
+  <si>
+    <t>sequencing facility organization</t>
+  </si>
+  <si>
+    <t>investigation summary information</t>
+  </si>
+  <si>
+    <t>identifier of participant under investigation(synonyn: subject identifier)</t>
+  </si>
+  <si>
+    <t>add to Eupath under CRID symbol</t>
+  </si>
+  <si>
+    <t>specimen collection protocol</t>
+  </si>
+  <si>
+    <t>the animal's or human's age counted in days</t>
+  </si>
+  <si>
+    <t>add to Eupath under age since birth measurement datum</t>
+  </si>
+  <si>
+    <t>was the child exposed to antibiotics?</t>
+  </si>
+  <si>
+    <t>information of whether child exposed to antibiotics</t>
+  </si>
+  <si>
+    <t>human clinical information</t>
+  </si>
+  <si>
+    <t>bee colony tetracycline</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Microbiome ontology</t>
+  </si>
+  <si>
+    <t>- update label</t>
+  </si>
+  <si>
+    <t>- update definition</t>
+  </si>
+  <si>
+    <t>- updated URI for mapped ontology terms</t>
+  </si>
+  <si>
+    <t>was the bee colony treated with tetracycline</t>
+  </si>
+  <si>
+    <t>information of whether bee colony treated with tetracycline</t>
+  </si>
+  <si>
+    <t>the number of courses of antibiotics received by the human or animal</t>
+  </si>
+  <si>
+    <t>number of courses of antibiotics given</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0000492</t>
+  </si>
+  <si>
+    <t>Child's diet</t>
+  </si>
+  <si>
+    <t>overall, what the main source of nutrition for the child?</t>
+  </si>
+  <si>
+    <t>child's diet</t>
+  </si>
+  <si>
+    <t>need import under 'protocol'</t>
+  </si>
+  <si>
+    <t>add to Eupath under diet</t>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t>Bee larval tetracycline</t>
+  </si>
+  <si>
+    <t>were bee larvae treated with tetracycline?</t>
+  </si>
+  <si>
+    <t>information of whether bee larvae treated with tetracycline</t>
+  </si>
+  <si>
+    <t>Number of courses of antibiotics received by mom prior to delivery</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0000497</t>
+  </si>
+  <si>
+    <t>number of courses of antibiotics received by mom prior to delivery</t>
+  </si>
+  <si>
+    <t>Choose samples obtained from the mother, from the child, or both.</t>
+  </si>
+  <si>
+    <t>information of specimen obtained from the mother or chid</t>
+  </si>
+  <si>
+    <t>In which batch were samples sequenced together</t>
+  </si>
+  <si>
+    <t>At which center were samples sequenced</t>
+  </si>
+  <si>
+    <t>sequencing batch information</t>
+  </si>
+  <si>
+    <t>Need check terms in yellow background and hierachy with DAN</t>
+  </si>
+  <si>
+    <t>It is map to age since birth, do we need to specify the age is about host? if so, need to add a new term, (age since birth and is about (age and inheres_in (organism and has_role host role))). The question apply to all host related terms. If might be fine since all terms under 'host information' category.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8594,8 +8825,52 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8853,6 +9128,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -8970,7 +9251,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="356">
+  <cellStyleXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9327,8 +9608,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9447,8 +9809,21 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="356">
+  <cellStyles count="437">
     <cellStyle name="20% - Accent1" xfId="208" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="212" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="216" builtinId="38" customBuiltin="1"/>
@@ -9781,6 +10156,87 @@
     <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="196" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="192" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="193" builtinId="17" customBuiltin="1"/>
@@ -10141,10 +10597,10 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomRight" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -44265,7 +44721,7 @@
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -44280,6 +44736,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -44292,13 +44749,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="1.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
@@ -44307,40 +44765,41 @@
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
     <col min="8" max="8" width="41.1640625" customWidth="1"/>
     <col min="9" max="9" width="23.1640625" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="120" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="116" customFormat="1" ht="18">
+      <c r="A1" s="116" t="s">
         <v>2685</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="116" t="s">
         <v>2686</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="116" t="s">
         <v>2687</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="116" t="s">
         <v>2699</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="116" t="s">
         <v>2688</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="122" t="s">
         <v>2689</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="116" t="s">
         <v>2698</v>
       </c>
-      <c r="H1" t="s">
-        <v>2733</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2732</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="H1" s="116" t="s">
+        <v>2728</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>2727</v>
+      </c>
+      <c r="J1" s="116" t="s">
         <v>1250</v>
       </c>
+      <c r="K1" s="123"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
@@ -44349,10 +44808,10 @@
       <c r="B2" t="s">
         <v>2591</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="126" t="s">
         <v>1226</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G2" t="s">
@@ -44369,14 +44828,23 @@
       <c r="C3" t="s">
         <v>1248</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>1709</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" t="s">
+        <v>2780</v>
+      </c>
+      <c r="F3" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G3" t="s">
         <v>2700</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2781</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -44389,14 +44857,23 @@
       <c r="C4" t="s">
         <v>1204</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>2449</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" t="s">
+        <v>2782</v>
+      </c>
+      <c r="F4" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G4" t="s">
         <v>2700</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2712</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -44412,17 +44889,20 @@
       <c r="D5" t="s">
         <v>2447</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G5" t="s">
         <v>2700</v>
       </c>
       <c r="H5" t="s">
-        <v>2730</v>
+        <v>2725</v>
       </c>
       <c r="I5" t="s">
-        <v>2731</v>
+        <v>2726</v>
+      </c>
+      <c r="J5" s="125" t="s">
+        <v>2737</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -44441,17 +44921,17 @@
       <c r="E6" t="s">
         <v>1710</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G6" t="s">
         <v>2700</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2734</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>2711</v>
+        <v>2761</v>
+      </c>
+      <c r="J6" s="94" t="s">
+        <v>2709</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -44467,20 +44947,19 @@
       <c r="E7" t="s">
         <v>1255</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G7" t="s">
         <v>2700</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>2712</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>2713</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="H7" s="94" t="s">
+        <v>2710</v>
+      </c>
+      <c r="I7" s="94" t="s">
+        <v>2711</v>
+      </c>
+      <c r="J7" s="94"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -44492,16 +44971,16 @@
       <c r="D8" t="s">
         <v>1234</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G8" t="s">
         <v>2700</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="125" t="s">
+        <v>2737</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -44511,9 +44990,9 @@
         <v>2636</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F9" s="10" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F9" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G9" t="s">
@@ -44521,11 +45000,10 @@
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
-        <v>2714</v>
+        <v>2784</v>
+      </c>
+      <c r="J9" s="94" t="s">
+        <v>2712</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -44538,16 +45016,24 @@
       <c r="C10" t="s">
         <v>1190</v>
       </c>
-      <c r="D10" t="s">
-        <v>2693</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="5" t="s">
+        <v>2785</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F10" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G10" t="s">
         <v>2700</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="I10" s="5" t="s">
+        <v>2792</v>
+      </c>
+      <c r="J10" s="94" t="s">
+        <v>2712</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -44562,11 +45048,20 @@
       <c r="D11" t="s">
         <v>2451</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F11" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G11" t="s">
         <v>2700</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2795</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2794</v>
       </c>
       <c r="J11" s="5"/>
     </row>
@@ -44581,9 +45076,12 @@
         <v>1667</v>
       </c>
       <c r="D12" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F12" s="5" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F12" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G12" t="s">
@@ -44591,11 +45089,10 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>2735</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>2737</v>
+        <v>2798</v>
+      </c>
+      <c r="J12" s="94" t="s">
+        <v>2800</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -44611,7 +45108,7 @@
       <c r="D13" t="s">
         <v>2439</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G13" t="s">
@@ -44619,11 +45116,10 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>2736</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
-        <v>2715</v>
+        <v>2729</v>
+      </c>
+      <c r="J13" s="94" t="s">
+        <v>2800</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -44633,24 +45129,27 @@
       <c r="B14" t="s">
         <v>321</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="93" t="s">
         <v>322</v>
       </c>
       <c r="E14" t="s">
         <v>1380</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G14" t="s">
         <v>2700</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K14" s="10"/>
+      <c r="H14" s="94" t="s">
+        <v>2738</v>
+      </c>
+      <c r="I14" s="94" t="s">
+        <v>2739</v>
+      </c>
+      <c r="J14" s="94" t="s">
+        <v>2740</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -44665,22 +45164,19 @@
       <c r="D15" t="s">
         <v>1713</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G15" t="s">
         <v>2700</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>2716</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>2717</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K15" s="10"/>
+      <c r="H15" s="94" t="s">
+        <v>2713</v>
+      </c>
+      <c r="I15" s="94" t="s">
+        <v>2714</v>
+      </c>
+      <c r="J15" s="94"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -44695,24 +45191,21 @@
       <c r="E16" t="s">
         <v>1584</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G16" t="s">
         <v>2700</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>2718</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>2719</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="H16" s="94" t="s">
+        <v>2715</v>
+      </c>
+      <c r="I16" s="94" t="s">
+        <v>2716</v>
+      </c>
+      <c r="J16" s="94"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>943</v>
       </c>
@@ -44725,49 +45218,45 @@
       <c r="E17" t="s">
         <v>1585</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G17" t="s">
         <v>2700</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>2720</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>2721</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="H17" s="94" t="s">
+        <v>2717</v>
+      </c>
+      <c r="I17" s="94" t="s">
+        <v>2718</v>
+      </c>
+      <c r="J17" s="94"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>1081</v>
       </c>
       <c r="B18" t="s">
         <v>1079</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G18" t="s">
         <v>2700</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10" t="s">
-        <v>1758</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="I18" s="5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="J18" s="94" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>946</v>
       </c>
@@ -44780,24 +45269,21 @@
       <c r="E19" t="s">
         <v>1586</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G19" t="s">
         <v>2700</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>2722</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="94" t="s">
+        <v>2719</v>
+      </c>
+      <c r="I19" s="94" t="s">
         <v>945</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>2516</v>
       </c>
@@ -44810,17 +45296,21 @@
       <c r="D20" t="s">
         <v>2454</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G20" t="s">
         <v>2700</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="H20" s="94" t="s">
+        <v>2731</v>
+      </c>
+      <c r="I20" s="94" t="s">
+        <v>2732</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>2527</v>
       </c>
@@ -44830,321 +45320,366 @@
       <c r="C21" t="s">
         <v>1240</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>2461</v>
       </c>
       <c r="E21" t="s">
         <v>1719</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G21" t="s">
         <v>2700</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" s="5" t="s">
+        <v>2733</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>2550</v>
       </c>
       <c r="B22" t="s">
         <v>1628</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="93" t="s">
         <v>1089</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="45" t="s">
         <v>1758</v>
       </c>
       <c r="G22" t="s">
         <v>2700</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22" s="118" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>964</v>
       </c>
       <c r="B23" t="s">
         <v>962</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="93" t="s">
         <v>2694</v>
       </c>
       <c r="E23" t="s">
         <v>1592</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="45" t="s">
         <v>1774</v>
       </c>
       <c r="G23" t="s">
         <v>2700</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="H23" t="s">
+        <v>2734</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2735</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>2548</v>
       </c>
       <c r="B24" t="s">
         <v>1629</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="113" t="s">
         <v>43</v>
       </c>
       <c r="E24" t="s">
         <v>1256</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G24" t="s">
         <v>2700</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24" s="119" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="117" t="s">
         <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>1262</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G25" t="s">
         <v>2700</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="I25" t="s">
+        <v>2749</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="113" t="s">
         <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>1266</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G26" t="s">
         <v>2700</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="H26" t="s">
+        <v>2743</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2744</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="113" t="s">
         <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>1268</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G27" t="s">
         <v>2700</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="H27" t="s">
+        <v>2746</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2745</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="113" t="s">
         <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>1274</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G28" t="s">
         <v>2700</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="H28" t="s">
+        <v>2748</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2747</v>
+      </c>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>74</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="113" t="s">
         <v>73</v>
       </c>
       <c r="E29" t="s">
         <v>1276</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G29" t="s">
         <v>2700</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="H29" t="s">
+        <v>2736</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>83</v>
       </c>
       <c r="B30" t="s">
         <v>81</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="113" t="s">
         <v>82</v>
       </c>
       <c r="E30" t="s">
         <v>1282</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G30" t="s">
-        <v>2700</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>2801</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2751</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2752</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>1078</v>
       </c>
       <c r="B31" t="s">
         <v>1076</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="117" t="s">
         <v>1077</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G31" t="s">
         <v>2700</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>1758</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="I31" t="s">
+        <v>2753</v>
+      </c>
+      <c r="J31" s="94" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>110</v>
       </c>
       <c r="B32" t="s">
         <v>108</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="113" t="s">
         <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>1300</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G32" t="s">
         <v>2700</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="H32" t="s">
+        <v>2754</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2755</v>
+      </c>
+      <c r="J32" s="94" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>2547</v>
       </c>
       <c r="B33" t="s">
         <v>1635</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="113" t="s">
         <v>121</v>
       </c>
       <c r="E33" t="s">
         <v>1308</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G33" t="s">
         <v>2700</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>137</v>
       </c>
       <c r="B34" t="s">
         <v>135</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="113" t="s">
         <v>136</v>
       </c>
       <c r="E34" t="s">
         <v>1318</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G34" t="s">
-        <v>2700</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>2801</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2757</v>
+      </c>
+      <c r="J34" s="94" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>2551</v>
       </c>
@@ -45152,19 +45687,17 @@
         <v>1736</v>
       </c>
       <c r="D35" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F35" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F35" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G35" t="s">
         <v>2700</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>2518</v>
       </c>
@@ -45174,60 +45707,62 @@
       <c r="C36" t="s">
         <v>1671</v>
       </c>
-      <c r="D36" t="s">
-        <v>2692</v>
-      </c>
-      <c r="F36" s="10" t="s">
+      <c r="D36" s="5" t="s">
+        <v>2802</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F36" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G36" t="s">
         <v>2700</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="I36" s="5" t="s">
+        <v>2804</v>
+      </c>
+      <c r="J36" s="94" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>2521</v>
       </c>
       <c r="B37" t="s">
         <v>2609</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="127" t="s">
         <v>1180</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G37" t="s">
         <v>2700</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>2522</v>
       </c>
       <c r="B38" t="s">
         <v>2610</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="127" t="s">
         <v>1196</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G38" t="s">
         <v>2700</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>2520</v>
       </c>
@@ -45237,20 +45772,27 @@
       <c r="C39" t="s">
         <v>1210</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="94" t="s">
         <v>2456</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="E39" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F39" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G39" t="s">
         <v>2700</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="H39" t="s">
+        <v>2806</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2807</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>2519</v>
       </c>
@@ -45260,20 +45802,26 @@
       <c r="C40" t="s">
         <v>1188</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>2455</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="E40" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F40" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G40" t="s">
         <v>2700</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="I40" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J40" s="94" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>2529</v>
       </c>
@@ -45283,20 +45831,23 @@
       <c r="C41" t="s">
         <v>1200</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>2463</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G41" t="s">
         <v>2700</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="I41" s="5" t="s">
+        <v>2758</v>
+      </c>
+      <c r="J41" s="94" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>2530</v>
       </c>
@@ -45306,43 +45857,49 @@
       <c r="C42" t="s">
         <v>1214</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>2464</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G42" t="s">
         <v>2700</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="I42" s="5" t="s">
+        <v>2759</v>
+      </c>
+      <c r="J42" s="94" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E43" t="s">
         <v>1255</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G43" t="s">
         <v>2700</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="I43" s="5" t="s">
+        <v>2764</v>
+      </c>
+      <c r="J43" s="94" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>2531</v>
       </c>
@@ -45352,20 +45909,23 @@
       <c r="C44" t="s">
         <v>1206</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>2465</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G44" t="s">
         <v>2700</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="I44" s="5" t="s">
+        <v>2762</v>
+      </c>
+      <c r="J44" s="94" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>2532</v>
       </c>
@@ -45375,20 +45935,23 @@
       <c r="C45" t="s">
         <v>1254</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>2466</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G45" t="s">
         <v>2700</v>
       </c>
-      <c r="J45" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="I45" s="5" t="s">
+        <v>2763</v>
+      </c>
+      <c r="J45" s="94" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>2523</v>
       </c>
@@ -45398,25 +45961,27 @@
       <c r="C46" t="s">
         <v>1244</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>2457</v>
       </c>
       <c r="E46" t="s">
         <v>1716</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G46" t="s">
         <v>2700</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="J46" s="5" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="I46" s="5" t="s">
+        <v>2766</v>
+      </c>
+      <c r="J46" s="94" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>2524</v>
       </c>
@@ -45426,25 +45991,27 @@
       <c r="C47" t="s">
         <v>1186</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>2458</v>
       </c>
       <c r="E47" t="s">
         <v>1717</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G47" t="s">
         <v>2700</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="J47" s="5" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="I47" s="5" t="s">
+        <v>2765</v>
+      </c>
+      <c r="J47" s="94" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>2525</v>
       </c>
@@ -45454,75 +46021,75 @@
       <c r="C48" t="s">
         <v>1232</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>2459</v>
       </c>
       <c r="E48" t="s">
         <v>1718</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G48" t="s">
         <v>2700</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="J48" s="5" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="I48" s="5" t="s">
+        <v>2767</v>
+      </c>
+      <c r="J48" s="94" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>572</v>
       </c>
       <c r="B49" t="s">
         <v>570</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>571</v>
       </c>
       <c r="E49" t="s">
         <v>1462</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G49" t="s">
         <v>2700</v>
       </c>
       <c r="H49" s="10"/>
-      <c r="J49" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="I49" t="s">
+        <v>2768</v>
+      </c>
+      <c r="J49" s="119" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>2534</v>
       </c>
       <c r="B50" t="s">
         <v>2622</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="128" t="s">
         <v>1689</v>
       </c>
       <c r="E50" t="s">
         <v>2691</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G50" t="s">
         <v>2700</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>2535</v>
       </c>
@@ -45532,40 +46099,43 @@
       <c r="C51" t="s">
         <v>1228</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>2467</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G51" t="s">
         <v>2700</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="J51" s="119" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>2579</v>
       </c>
       <c r="B52" t="s">
         <v>2657</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G52" t="s">
         <v>2700</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="I52" s="5" t="s">
+        <v>2772</v>
+      </c>
+      <c r="J52" s="94" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>2580</v>
       </c>
@@ -45575,17 +46145,21 @@
       <c r="D53" t="s">
         <v>1148</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G53" t="s">
         <v>2700</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="H53" t="s">
+        <v>2771</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>2536</v>
       </c>
@@ -45595,20 +46169,26 @@
       <c r="C54" t="s">
         <v>1182</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>2468</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="E54" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F54" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G54" t="s">
         <v>2700</v>
       </c>
-      <c r="J54" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="I54" s="5" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J54" s="94" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>2537</v>
       </c>
@@ -45621,40 +46201,47 @@
       <c r="D55" t="s">
         <v>2470</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="E55" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F55" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G55" t="s">
         <v>2700</v>
       </c>
-      <c r="J55" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="H55" t="s">
+        <v>2774</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2775</v>
+      </c>
+      <c r="J55" s="94" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>2496</v>
       </c>
       <c r="B56" t="s">
         <v>1751</v>
       </c>
-      <c r="C56" t="b">
+      <c r="C56" s="93" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="s">
         <v>1230</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G56" t="s">
         <v>2700</v>
       </c>
-      <c r="J56" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>2538</v>
       </c>
@@ -45664,38 +46251,38 @@
       <c r="D57" t="s">
         <v>1208</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G57" t="s">
         <v>2700</v>
       </c>
-      <c r="J57" s="5" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>2582</v>
       </c>
       <c r="B58" t="s">
         <v>2660</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G58" t="s">
         <v>2700</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>1758</v>
-      </c>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="I58" s="5" t="s">
+        <v>2776</v>
+      </c>
+      <c r="J58" s="94" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>2539</v>
       </c>
@@ -45705,23 +46292,23 @@
       <c r="C59" t="s">
         <v>1194</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>2471</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G59" t="s">
         <v>2700</v>
       </c>
-      <c r="J59" s="5" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="I59" s="5" t="s">
+        <v>2777</v>
+      </c>
+      <c r="J59" s="94" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>2540</v>
       </c>
@@ -45731,20 +46318,17 @@
       <c r="D60" t="s">
         <v>1252</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G60" t="s">
         <v>2700</v>
       </c>
-      <c r="J60" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="J60" s="120" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>2541</v>
       </c>
@@ -45754,26 +46338,21 @@
       <c r="D61" t="s">
         <v>1198</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G61" t="s">
         <v>2700</v>
       </c>
-      <c r="H61" s="10" t="s">
-        <v>2726</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>2727</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="H61" s="94" t="s">
+        <v>2721</v>
+      </c>
+      <c r="I61" s="94" t="s">
+        <v>2722</v>
+      </c>
+      <c r="J61" s="120"/>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>901</v>
       </c>
@@ -45786,17 +46365,15 @@
       <c r="E62" t="s">
         <v>1572</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G62" t="s">
         <v>2700</v>
       </c>
-      <c r="J62" s="10" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>2504</v>
       </c>
@@ -45809,23 +46386,23 @@
       <c r="D63" t="s">
         <v>2450</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G63" t="s">
         <v>2700</v>
       </c>
-      <c r="H63" t="s">
-        <v>2708</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="H63" s="94" t="s">
         <v>2707</v>
       </c>
-      <c r="K63" t="s">
-        <v>2709</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="I63" t="s">
+        <v>2706</v>
+      </c>
+      <c r="J63" s="121" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>2528</v>
       </c>
@@ -45838,20 +46415,20 @@
       <c r="D64" t="s">
         <v>2462</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G64" t="s">
         <v>2700</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="94" t="s">
+        <v>2703</v>
+      </c>
+      <c r="I64" t="s">
         <v>2704</v>
       </c>
-      <c r="K64" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>2526</v>
       </c>
@@ -45861,17 +46438,17 @@
       <c r="D65" t="s">
         <v>1216</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G65" t="s">
         <v>2700</v>
       </c>
-      <c r="J65" t="s">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="I65" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>2555</v>
       </c>
@@ -45881,63 +46458,63 @@
       <c r="D66" t="s">
         <v>1155</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G66" t="s">
         <v>2700</v>
       </c>
-      <c r="J66" t="s">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>1033</v>
       </c>
       <c r="B67" t="s">
         <v>1031</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="E67" t="s">
         <v>1614</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G67" t="s">
         <v>2700</v>
       </c>
+      <c r="I67" s="5" t="s">
+        <v>2779</v>
+      </c>
       <c r="J67" t="s">
-        <v>2706</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>1075</v>
       </c>
       <c r="B68" t="s">
         <v>1073</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="94" t="s">
         <v>1758</v>
       </c>
       <c r="G68" t="s">
         <v>2700</v>
       </c>
+      <c r="I68" s="5" t="s">
+        <v>2702</v>
+      </c>
       <c r="J68" t="s">
         <v>2701</v>
       </c>
-      <c r="K68" t="s">
-        <v>2702</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>2546</v>
       </c>
@@ -45950,17 +46527,14 @@
       <c r="D69" t="s">
         <v>2469</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="94" t="s">
         <v>1774</v>
       </c>
       <c r="G69" t="s">
         <v>2700</v>
       </c>
-      <c r="J69" t="s">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -45973,11 +46547,11 @@
       <c r="E70" t="s">
         <v>1322</v>
       </c>
-      <c r="F70" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="F70" s="94" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>2497</v>
       </c>
@@ -45988,7 +46562,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>2501</v>
       </c>
@@ -45999,7 +46573,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>910</v>
       </c>
@@ -46016,7 +46590,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -46033,7 +46607,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>2544</v>
       </c>
@@ -46044,7 +46618,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -46061,7 +46635,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -46078,7 +46652,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -46095,7 +46669,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>164</v>
       </c>
@@ -46112,7 +46686,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -47178,7 +47752,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>311</v>
       </c>
@@ -47195,7 +47769,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>314</v>
       </c>
@@ -47212,7 +47786,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>317</v>
       </c>
@@ -47229,7 +47803,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>320</v>
       </c>
@@ -47246,7 +47820,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>326</v>
       </c>
@@ -47266,9 +47840,8 @@
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
-    </row>
-    <row r="150" spans="1:11">
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>329</v>
       </c>
@@ -47288,9 +47861,8 @@
       <c r="H150" s="10"/>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
-    </row>
-    <row r="151" spans="1:11">
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>332</v>
       </c>
@@ -47310,9 +47882,8 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-    </row>
-    <row r="152" spans="1:11">
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>937</v>
       </c>
@@ -47332,9 +47903,8 @@
       <c r="H152" s="10"/>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
-      <c r="K152" s="10"/>
-    </row>
-    <row r="153" spans="1:11">
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>952</v>
       </c>
@@ -47351,7 +47921,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
         <v>955</v>
       </c>
@@ -47368,7 +47938,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>958</v>
       </c>
@@ -47385,7 +47955,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -47402,7 +47972,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -47419,7 +47989,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
         <v>398</v>
       </c>
@@ -47436,7 +48006,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>401</v>
       </c>
@@ -47453,7 +48023,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
         <v>338</v>
       </c>
@@ -48004,7 +48574,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -48021,7 +48591,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>47</v>
       </c>
@@ -48040,7 +48610,7 @@
       <c r="G194" s="10"/>
       <c r="J194" s="10"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>50</v>
       </c>
@@ -48059,7 +48629,7 @@
       <c r="G195" s="10"/>
       <c r="J195" s="10"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>65</v>
       </c>
@@ -48078,7 +48648,7 @@
       <c r="G196" s="10"/>
       <c r="J196" s="10"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>56</v>
       </c>
@@ -48097,7 +48667,7 @@
       <c r="G197" s="10"/>
       <c r="J197" s="10"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>68</v>
       </c>
@@ -48116,7 +48686,7 @@
       <c r="G198" s="10"/>
       <c r="J198" s="10"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>77</v>
       </c>
@@ -48135,7 +48705,7 @@
       <c r="G199" s="10"/>
       <c r="J199" s="10"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>80</v>
       </c>
@@ -48154,7 +48724,7 @@
       <c r="G200" s="10"/>
       <c r="J200" s="10"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>86</v>
       </c>
@@ -48171,7 +48741,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -48188,7 +48758,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>92</v>
       </c>
@@ -48205,7 +48775,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>95</v>
       </c>
@@ -48222,7 +48792,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>98</v>
       </c>
@@ -48240,9 +48810,8 @@
       </c>
       <c r="G205" s="10"/>
       <c r="J205" s="10"/>
-      <c r="K205" s="10"/>
-    </row>
-    <row r="206" spans="1:11">
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>101</v>
       </c>
@@ -48260,9 +48829,8 @@
       </c>
       <c r="G206" s="10"/>
       <c r="J206" s="10"/>
-      <c r="K206" s="10"/>
-    </row>
-    <row r="207" spans="1:11">
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>104</v>
       </c>
@@ -48280,9 +48848,8 @@
       </c>
       <c r="G207" s="10"/>
       <c r="J207" s="10"/>
-      <c r="K207" s="10"/>
-    </row>
-    <row r="208" spans="1:11">
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>107</v>
       </c>
@@ -48300,9 +48867,8 @@
       </c>
       <c r="G208" s="10"/>
       <c r="J208" s="10"/>
-      <c r="K208" s="10"/>
-    </row>
-    <row r="209" spans="1:11">
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>113</v>
       </c>
@@ -48320,9 +48886,8 @@
       </c>
       <c r="G209" s="10"/>
       <c r="J209" s="10"/>
-      <c r="K209" s="10"/>
-    </row>
-    <row r="210" spans="1:11">
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>116</v>
       </c>
@@ -48340,9 +48905,8 @@
       </c>
       <c r="G210" s="10"/>
       <c r="J210" s="10"/>
-      <c r="K210" s="10"/>
-    </row>
-    <row r="211" spans="1:11">
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>119</v>
       </c>
@@ -48360,9 +48924,8 @@
       </c>
       <c r="G211" s="10"/>
       <c r="J211" s="10"/>
-      <c r="K211" s="10"/>
-    </row>
-    <row r="212" spans="1:11">
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
         <v>125</v>
       </c>
@@ -48379,7 +48942,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>970</v>
       </c>
@@ -48396,7 +48959,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
         <v>128</v>
       </c>
@@ -48413,7 +48976,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>131</v>
       </c>
@@ -48430,7 +48993,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>134</v>
       </c>
@@ -48447,7 +49010,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>140</v>
       </c>
@@ -48466,7 +49029,7 @@
       <c r="G217" s="10"/>
       <c r="J217" s="10"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
         <v>413</v>
       </c>
@@ -48483,7 +49046,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>416</v>
       </c>
@@ -48500,7 +49063,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>419</v>
       </c>
@@ -48517,7 +49080,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
         <v>422</v>
       </c>
@@ -48534,7 +49097,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>425</v>
       </c>
@@ -48551,7 +49114,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>428</v>
       </c>
@@ -48568,7 +49131,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>431</v>
       </c>
@@ -52233,56 +52796,175 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>2728</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>2729</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="D2" s="124" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D3" s="124" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D4" s="124" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18">
+      <c r="A8" s="116" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B9" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>2449</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B10" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>2451</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B12" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B13" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>2439</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="119" t="s">
+        <v>2813</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Load/src/ontology/Microbiome/doc/microbiome_terms.xlsx
+++ b/Load/src/ontology/Microbiome/doc/microbiome_terms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="160" windowWidth="25360" windowHeight="13920" tabRatio="775" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="6240" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="775" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IRI mappings(webProtege)" sheetId="13" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="ontology mapping" sheetId="16" r:id="rId7"/>
     <sheet name="ToDo in ontology" sheetId="17" r:id="rId8"/>
     <sheet name="Penn DataSet" sheetId="15" r:id="rId9"/>
+    <sheet name="annotationUpdates" sheetId="18" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11721" uniqueCount="3040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11895" uniqueCount="3043">
   <si>
     <t>Name</t>
   </si>
@@ -9165,12 +9166,21 @@
   <si>
     <t>Child's diet (by month)</t>
   </si>
+  <si>
+    <t>IRI</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#label</t>
+  </si>
+  <si>
+    <t>Environmental feature level includes geographic environmental features. Compared to biome, feature is a descriptor of the more local environment. Examples include: harbor, cliff, or lake. EnvO (v 2013-06-14) terms can be found via the link: www.environmentontology.org</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9541,6 +9551,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -9926,7 +9942,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="495">
+  <cellStyleXfs count="498">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10422,8 +10438,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10555,8 +10574,9 @@
     <xf numFmtId="0" fontId="24" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="495">
+  <cellStyles count="498">
     <cellStyle name="20% - Accent1" xfId="208" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="212" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="216" builtinId="38" customBuiltin="1"/>
@@ -11028,6 +11048,9 @@
     <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="196" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="192" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="193" builtinId="17" customBuiltin="1"/>
@@ -12685,6 +12708,719 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="48.83203125" customWidth="1"/>
+    <col min="2" max="3" width="58.33203125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18">
+      <c r="A1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C1" s="129" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>940</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>943</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>946</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>964</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>572</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>901</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC452"/>
@@ -45512,8 +46248,8 @@
   <dimension ref="A1:K446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -45957,7 +46693,7 @@
         <v>942</v>
       </c>
       <c r="E16" t="s">
-        <v>1585</v>
+        <v>3042</v>
       </c>
       <c r="F16" s="94" t="s">
         <v>1774</v>

--- a/Load/src/ontology/Microbiome/doc/microbiome_terms.xlsx
+++ b/Load/src/ontology/Microbiome/doc/microbiome_terms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="775" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="984" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="IRI mappings(webProtege)" sheetId="13" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="microbiome terms" sheetId="14" r:id="rId6"/>
     <sheet name="ontology mapping" sheetId="16" r:id="rId7"/>
     <sheet name="ToDo in ontology" sheetId="17" r:id="rId8"/>
-    <sheet name="Penn DataSet" sheetId="15" r:id="rId9"/>
-    <sheet name="annotationUpdates" sheetId="18" r:id="rId10"/>
+    <sheet name="annotationUpdates" sheetId="18" r:id="rId9"/>
+    <sheet name="Column names by data set(Penn)" sheetId="21" r:id="rId10"/>
+    <sheet name="new terms(Penn)" sheetId="22" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,8 +28,206 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User: Dan Beiting
+If possible, create a short but meaningful (i.e. human readable), name for the column name on the left.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User: Dan Beiting</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter some text that describes the type of metadata collected.  This can be as long and detailed as you like.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User: Dan Beiting</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+If this is measurement data, please indicate the unit of measurement (i.e. years for Age, Kg for weight, etc)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User: Dan Beiting</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+If abbreviations were used in the values, please provide a full meaning of these abbreviations.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User: Dan Beiting
+If possible, create a short but meaningful (i.e. human readable), name for the column name on the left.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User: Dan Beiting</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter some text that describes the type of metadata collected.  This can be as long and detailed as you like.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User: Dan Beiting</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+If this is measurement data, please indicate the unit of measurement (i.e. years for Age, Kg for weight, etc)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User: Dan Beiting</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+If abbreviations were used in the values, please provide a full meaning of these abbreviations.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11895" uniqueCount="3043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12458" uniqueCount="3237">
   <si>
     <t>Name</t>
   </si>
@@ -8492,66 +8691,12 @@
     <t>data set</t>
   </si>
   <si>
-    <t>Pitta_Study1_mapping_file.txt</t>
-  </si>
-  <si>
     <t>#SampleID</t>
   </si>
   <si>
-    <t>BarcodeSequence</t>
-  </si>
-  <si>
-    <t>AnimalID</t>
-  </si>
-  <si>
-    <t>study_group</t>
-  </si>
-  <si>
-    <t>DateCollected</t>
-  </si>
-  <si>
-    <t>Lactation_number</t>
-  </si>
-  <si>
-    <t>study_day</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Pitta_Gujrat_master_mapping.txt</t>
-  </si>
-  <si>
-    <t>LinkerPrimerSequence</t>
-  </si>
-  <si>
-    <t>Nucleicacid</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Forage</t>
-  </si>
-  <si>
-    <t>Fraction</t>
-  </si>
-  <si>
-    <t>Replicate</t>
-  </si>
-  <si>
-    <t>50%Dryroughage_50%Concentrate</t>
-  </si>
-  <si>
-    <t>Solid/Liquid</t>
-  </si>
-  <si>
-    <t>technical replicate?</t>
-  </si>
-  <si>
-    <t>Dry_roughage,Green_roughage</t>
-  </si>
-  <si>
     <t>Grice_DFU_mapping.tsv</t>
   </si>
   <si>
@@ -8813,132 +8958,9 @@
     <t>dmn</t>
   </si>
   <si>
-    <t>something wrong with format in this dataset.</t>
-  </si>
-  <si>
     <t>unit is not clear, days?</t>
   </si>
   <si>
-    <t>full_trauma_mapping_meta.tsv</t>
-  </si>
-  <si>
-    <t>RunID</t>
-  </si>
-  <si>
-    <t>SampleType</t>
-  </si>
-  <si>
-    <t>SampleKitID</t>
-  </si>
-  <si>
-    <t>VisitType</t>
-  </si>
-  <si>
-    <t>CollectionDate</t>
-  </si>
-  <si>
-    <t>AbxTaken</t>
-  </si>
-  <si>
-    <t>AbxOne</t>
-  </si>
-  <si>
-    <t>AbxTwo</t>
-  </si>
-  <si>
-    <t>AbxThree</t>
-  </si>
-  <si>
-    <t>Complication</t>
-  </si>
-  <si>
-    <t>CompOne</t>
-  </si>
-  <si>
-    <t>CompTwo</t>
-  </si>
-  <si>
-    <t>CompThree</t>
-  </si>
-  <si>
-    <t>Infection</t>
-  </si>
-  <si>
-    <t>BoneHeal</t>
-  </si>
-  <si>
-    <t>SiteIDLoc</t>
-  </si>
-  <si>
-    <t>SiteIDSide</t>
-  </si>
-  <si>
-    <t>AnyComplication</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>BMInumber</t>
-  </si>
-  <si>
-    <t>BluntPenetrating</t>
-  </si>
-  <si>
-    <t>GASeverity</t>
-  </si>
-  <si>
-    <t>Smoker</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Alcohol</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>DischargeDate</t>
-  </si>
-  <si>
-    <t>ConsentDate</t>
-  </si>
-  <si>
-    <t>InjuryDate</t>
-  </si>
-  <si>
-    <t>DaysPostInjury</t>
-  </si>
-  <si>
-    <t>DaysPostDischarge</t>
-  </si>
-  <si>
-    <t>Any_Kit_Complication</t>
-  </si>
-  <si>
-    <t>Any_Kit_Infection</t>
-  </si>
-  <si>
-    <t>VisitNumber</t>
-  </si>
-  <si>
-    <t>Vists_Before_Complication</t>
-  </si>
-  <si>
-    <t>Days_Before_Complication</t>
-  </si>
-  <si>
-    <t>Vists_Before_Infection</t>
-  </si>
-  <si>
-    <t>Days_Before_Infection</t>
-  </si>
-  <si>
-    <t>mc_trauma_DMN_idents</t>
-  </si>
-  <si>
     <t>ciara_010_map_v3.txt</t>
   </si>
   <si>
@@ -9092,12 +9114,6 @@
     <t>Age in days?</t>
   </si>
   <si>
-    <t>Body mass index</t>
-  </si>
-  <si>
-    <t>Animal Identifier</t>
-  </si>
-  <si>
     <t>animal cage</t>
   </si>
   <si>
@@ -9107,21 +9123,9 @@
     <t>Cage Identifier</t>
   </si>
   <si>
-    <t>Sebaceous, Dry</t>
-  </si>
-  <si>
-    <t>Barcode Sequence</t>
-  </si>
-  <si>
     <t>values example</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/EUPATH_0000032</t>
-  </si>
-  <si>
-    <t>date of birth</t>
-  </si>
-  <si>
     <t>Co-housed Naïve,Infected</t>
   </si>
   <si>
@@ -9149,18 +9153,6 @@
     <t xml:space="preserve">http://www.ebi.ac.uk/efo/EFO_0001799 </t>
   </si>
   <si>
-    <t>C,S</t>
-  </si>
-  <si>
-    <t>Lesion, Non-lesion</t>
-  </si>
-  <si>
-    <t>Is it same as group?</t>
-  </si>
-  <si>
-    <t>OR,ED, OF</t>
-  </si>
-  <si>
     <t>For each month, what was the main source of nutrition for the child?</t>
   </si>
   <si>
@@ -9174,13 +9166,802 @@
   </si>
   <si>
     <t>Environmental feature level includes geographic environmental features. Compared to biome, feature is a descriptor of the more local environment. Examples include: harbor, cliff, or lake. EnvO (v 2013-06-14) terms can be found via the link: www.environmentontology.org</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>meaningful column name</t>
+  </si>
+  <si>
+    <t>unit of measurement</t>
+  </si>
+  <si>
+    <t>meaning of abbreviations used in values</t>
+  </si>
+  <si>
+    <t>Elizabeth Grice, Charles Bradley</t>
+  </si>
+  <si>
+    <t>sampleID</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>Age in months</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MICRO_0000555</t>
+  </si>
+  <si>
+    <t>Degree of hairloss</t>
+  </si>
+  <si>
+    <t>score  0 to 5</t>
+  </si>
+  <si>
+    <t>add (skin symptom or sign) information</t>
+  </si>
+  <si>
+    <t>Affected or Unaffected</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>what affected or not?</t>
+  </si>
+  <si>
+    <t>Affected by atopic dermatitis (yes/no)</t>
+  </si>
+  <si>
+    <t>Canine Breed</t>
+  </si>
+  <si>
+    <t>add under host information</t>
+  </si>
+  <si>
+    <t>Epidermal Moisture content</t>
+  </si>
+  <si>
+    <t>Corneometry Unit</t>
+  </si>
+  <si>
+    <t>Do we need to add phenotype/symptome or signs/clinical finding category under host information?</t>
+  </si>
+  <si>
+    <t>Degree of skin readness</t>
+  </si>
+  <si>
+    <t>score 0 to 5</t>
+  </si>
+  <si>
+    <t>Do we need to add phenotype/symptome or signs under host information or clinical history?</t>
+  </si>
+  <si>
+    <t>score 0 to 15</t>
+  </si>
+  <si>
+    <t>Axillary Lesion Score before treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add phenotype/symptome or signs under host information, </t>
+  </si>
+  <si>
+    <t>Axillary Lesion Score during treatment</t>
+  </si>
+  <si>
+    <t>Axillary Lesion Score after treatment</t>
+  </si>
+  <si>
+    <t>Groin Lesion Score</t>
+  </si>
+  <si>
+    <t>Pinna Lesion Score</t>
+  </si>
+  <si>
+    <t>Degree of skin thickening</t>
+  </si>
+  <si>
+    <t>Do we need to category to group skin related symptome/signs/disease and other for breast?</t>
+  </si>
+  <si>
+    <t>is th mapping correct?</t>
+  </si>
+  <si>
+    <t>still no idea what it is</t>
+  </si>
+  <si>
+    <t>Transepidermal water loss</t>
+  </si>
+  <si>
+    <t> g/m2 h</t>
+  </si>
+  <si>
+    <t>clinical finding</t>
+  </si>
+  <si>
+    <t>Transepidermal water loss( g/m2 h)</t>
+  </si>
+  <si>
+    <t>Visit Number</t>
+  </si>
+  <si>
+    <t>Visit 1-3 (pretreatment, treated, post treatment)</t>
+  </si>
+  <si>
+    <t>under host information? Need change value 1,2,3 to pre-treatment, treated, and post treatment</t>
+  </si>
+  <si>
+    <t>clinical visit</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0000049</t>
+  </si>
+  <si>
+    <t>Elizabeth Grice, Phil Scott</t>
+  </si>
+  <si>
+    <t>Cage Number</t>
+  </si>
+  <si>
+    <t>Cage # designated for that experiment</t>
+  </si>
+  <si>
+    <t>animal cage number for experiment</t>
+  </si>
+  <si>
+    <t>Number assigned to each mouse in the cage</t>
+  </si>
+  <si>
+    <t>cage number for a mouse</t>
+  </si>
+  <si>
+    <t>Is not relevant in this study</t>
+  </si>
+  <si>
+    <t>ignore?</t>
+  </si>
+  <si>
+    <t>Describes treatment, infection status, etc.</t>
+  </si>
+  <si>
+    <t>study group</t>
+  </si>
+  <si>
+    <t>A desgination used to identify each project in the Grice lab (not necessary to include)</t>
+  </si>
+  <si>
+    <t>A designation used in the Grice lab which describes which sequence run the samples are from</t>
+  </si>
+  <si>
+    <t>Number assigned to each sample on that sequence run</t>
+  </si>
+  <si>
+    <t>specimen identifier assigned by sequencing facility</t>
+  </si>
+  <si>
+    <t>Pathology score</t>
+  </si>
+  <si>
+    <t>Pathology score used during leishmania infections</t>
+  </si>
+  <si>
+    <t>0- no lesion, 1- redness/swelling, 2- pinna deformation, 3- ulceration, 4- partial tissue loss, 5- total tissue loss</t>
+  </si>
+  <si>
+    <t>Side of the mouse</t>
+  </si>
+  <si>
+    <t>Describes which ear was swabbed (left or right)</t>
+  </si>
+  <si>
+    <t>values need change to left ear, right ear</t>
+  </si>
+  <si>
+    <t>Describes the type of skin swabbed (lesion, non-lesion (contralateral skin), etc)</t>
+  </si>
+  <si>
+    <t>Type of sample</t>
+  </si>
+  <si>
+    <t>Describes what type of sample was collected (fecal pellet, ear swab, etc)</t>
+  </si>
+  <si>
+    <t>A desgination used to identify each project for my experiments (not necessary to include)</t>
+  </si>
+  <si>
+    <t>Number assigned to each mouse in the experiment</t>
+  </si>
+  <si>
+    <t>participant under invesitigation identifier</t>
+  </si>
+  <si>
+    <t>Ear thickness</t>
+  </si>
+  <si>
+    <t>Measurement of ear thickness of a mouse</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Describes when the samples were collected following infection</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>TP1- 0 weeks, TP2- 6 weeks, TP3- 12 weeks</t>
+  </si>
+  <si>
+    <t>sample collection</t>
+  </si>
+  <si>
+    <t>sample collection time post infection</t>
+  </si>
+  <si>
+    <t>TP1- 0 weeks, TP3- 4 weeks, TP4- 6 weeks, TP7- 12 weeks</t>
+  </si>
+  <si>
+    <t>Part of the body sampled</t>
+  </si>
+  <si>
+    <t>Describes the microenvironment of the body part</t>
+  </si>
+  <si>
+    <t>Sebaceous, Dry, Moist</t>
+  </si>
+  <si>
+    <t>skin symptome or signs</t>
+  </si>
+  <si>
+    <t>skin type</t>
+  </si>
+  <si>
+    <t>Describes whether the patient's lesion was healed after treatment</t>
+  </si>
+  <si>
+    <t>Yes, No, NA</t>
+  </si>
+  <si>
+    <t>add treatment/treatment information category</t>
+  </si>
+  <si>
+    <t>Delayed type hypersensitivity</t>
+  </si>
+  <si>
+    <t>Describes the degree (area) of inflammation after a patient was exposed to leishmania antigen</t>
+  </si>
+  <si>
+    <t>mm squared</t>
+  </si>
+  <si>
+    <t>Duration of lesion</t>
+  </si>
+  <si>
+    <t>Describes how long a lesion was present before swabbing it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days </t>
+  </si>
+  <si>
+    <t>Describes when the DNA was extracted</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Describes the size of the lesion at the time the swab was collected</t>
+  </si>
+  <si>
+    <t>Number of treatments</t>
+  </si>
+  <si>
+    <t>Describes the number of treatments needed before the lesion healed</t>
+  </si>
+  <si>
+    <t>A desgination used to identify each patient in Brazile (not necessary to include)</t>
+  </si>
+  <si>
+    <t>Describes the sex of the patient</t>
+  </si>
+  <si>
+    <t>Describes the side of the body where the lesion was present</t>
+  </si>
+  <si>
+    <t>Describes the type of skin swabbed</t>
+  </si>
+  <si>
+    <t>Lesion, Border (adjacent to lesion), Normal (Contralateral skin)</t>
+  </si>
+  <si>
+    <t>Describes where the samples are stored in the lab (not necessary to include)</t>
+  </si>
+  <si>
+    <t>Number assigned to each patient in the experiment</t>
+  </si>
+  <si>
+    <t>Ankle Brachial Index</t>
+  </si>
+  <si>
+    <t>tests the risk of peripheral artery disease by comparing blood pressure measured at the ankle with blood pressure measured at the arm.</t>
+  </si>
+  <si>
+    <t>Age of subject in years</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Amputation</t>
+  </si>
+  <si>
+    <t>Did the subject have an amputation?</t>
+  </si>
+  <si>
+    <t>Y/N</t>
+  </si>
+  <si>
+    <t>Percent anaerobes</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Percent anaerococcus</t>
+  </si>
+  <si>
+    <t>Antibiotic treatment</t>
+  </si>
+  <si>
+    <t>Was an antibiotic treatment given?</t>
+  </si>
+  <si>
+    <t>Bray-Curtis Index</t>
+  </si>
+  <si>
+    <t>Percent Corynebacterium</t>
+  </si>
+  <si>
+    <t>C Reactive Protein level</t>
+  </si>
+  <si>
+    <t>Depth of ulcer</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Duration of Diabetes</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Type of Diabetes</t>
+  </si>
+  <si>
+    <t>1 or 2</t>
+  </si>
+  <si>
+    <t>Dirchlet multinomial cluster number</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>Was this patient enrolled under the new criteria?</t>
+  </si>
+  <si>
+    <t>End of study reason</t>
+  </si>
+  <si>
+    <t>1-End of study completed; 2-Dropped out; 3-Deceased; 4-Amputation; 5-Other infection; 6-Wound infection; 7-Unable to locate/contact for followup; 8-Dropped by study; 9-Other</t>
+  </si>
+  <si>
+    <t>Erythrocyte sedimentation rate</t>
+  </si>
+  <si>
+    <t>the rate at which red blood cells sediment in a period of one hour. It is a common hematology test, and is a non-specific measure of inflammation.</t>
+  </si>
+  <si>
+    <t>millimeters per hour</t>
+  </si>
+  <si>
+    <t>Percent Firmicutes</t>
+  </si>
+  <si>
+    <t>Blood glucose</t>
+  </si>
+  <si>
+    <t>level of glucose in the peripheral blood</t>
+  </si>
+  <si>
+    <t>milligrams per deciliter (mg/dL)</t>
+  </si>
+  <si>
+    <t>This sample comes from an ulcer that ultimately healed.</t>
+  </si>
+  <si>
+    <t>healed in 12 weeks</t>
+  </si>
+  <si>
+    <t>This sample came from an ulcer that healed in 12 weeks</t>
+  </si>
+  <si>
+    <t>healed in 4 weeks</t>
+  </si>
+  <si>
+    <t>This sample came from an ulcer that healed in 4 weeks</t>
+  </si>
+  <si>
+    <t>Hemoglobin A1C</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>mean tissue oxygen tension</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>necrosis present</t>
+  </si>
+  <si>
+    <t>is necrosis present?</t>
+  </si>
+  <si>
+    <t>0-none; 1-&lt;25%; 2-25-50%; 3-50-75%; 4-75-100%</t>
+  </si>
+  <si>
+    <t>Method of offloading</t>
+  </si>
+  <si>
+    <t>1-Total contact cast; 2-DH Boot</t>
+  </si>
+  <si>
+    <t>Sample ID in lab sample tracking system</t>
+  </si>
+  <si>
+    <t>1-male; 2-female</t>
+  </si>
+  <si>
+    <t>Percent Staphylococcus</t>
+  </si>
+  <si>
+    <t>Percent Streptococcus</t>
+  </si>
+  <si>
+    <t>ID of study subject</t>
+  </si>
+  <si>
+    <t>surface_area</t>
+  </si>
+  <si>
+    <t>surface area of ulcer</t>
+  </si>
+  <si>
+    <t>cm sq</t>
+  </si>
+  <si>
+    <t>surface_area_heal_rate</t>
+  </si>
+  <si>
+    <t>rate at which surface area heals</t>
+  </si>
+  <si>
+    <t>Toe Brachial Pressure Index</t>
+  </si>
+  <si>
+    <t>topical antibiotic treatment occurred at this visit</t>
+  </si>
+  <si>
+    <t>topical treatment (non-antibiotic) occurred at this treatment</t>
+  </si>
+  <si>
+    <t>ulcer_duration</t>
+  </si>
+  <si>
+    <t>ulcer duration</t>
+  </si>
+  <si>
+    <t>ulcer_location</t>
+  </si>
+  <si>
+    <t>location of the ulcer on the foot</t>
+  </si>
+  <si>
+    <t>1-lateral forefoot; 2-medial forefoot; 3-lateral midfoot; 4-medial midfoot; 5-Heel; 6-Hallux</t>
+  </si>
+  <si>
+    <t>unweighted unifrac</t>
+  </si>
+  <si>
+    <t>visit_abx</t>
+  </si>
+  <si>
+    <t>antibiotic treatment occurred one visit after at this visit</t>
+  </si>
+  <si>
+    <t>visit_before_antibiotics</t>
+  </si>
+  <si>
+    <t>antibiotic treatment occurred one visit after this visit</t>
+  </si>
+  <si>
+    <t>visit_before_amputation</t>
+  </si>
+  <si>
+    <t>amputation occurred one visit after this visit</t>
+  </si>
+  <si>
+    <t>visit_before_complication</t>
+  </si>
+  <si>
+    <t>complication occurred one visit after this visit</t>
+  </si>
+  <si>
+    <t>visit_before_healing</t>
+  </si>
+  <si>
+    <t>healing occurred one visit following this visit</t>
+  </si>
+  <si>
+    <t>visit_before_osteomyelitis</t>
+  </si>
+  <si>
+    <t>osteomyelitis occurred one visit following this visit</t>
+  </si>
+  <si>
+    <t>visit_before_wound_deterioration</t>
+  </si>
+  <si>
+    <t>wound deterioration occurred one visit after this visit</t>
+  </si>
+  <si>
+    <t>visit_complication</t>
+  </si>
+  <si>
+    <t>a complication observed during this visit</t>
+  </si>
+  <si>
+    <t>visit_osteomyelitis</t>
+  </si>
+  <si>
+    <t>osteomyelitis observed during this visit</t>
+  </si>
+  <si>
+    <t>visit_post_antibiotic_tx</t>
+  </si>
+  <si>
+    <t>this is the visit post antibiotic treatment</t>
+  </si>
+  <si>
+    <t>visit_wound_deterioration</t>
+  </si>
+  <si>
+    <t>wound deterioration observed at this visit</t>
+  </si>
+  <si>
+    <t>visit that the sample was collection</t>
+  </si>
+  <si>
+    <t>visit the ulcer healed</t>
+  </si>
+  <si>
+    <t>volume of the ulcer</t>
+  </si>
+  <si>
+    <t>rate at which the volume healed</t>
+  </si>
+  <si>
+    <t>white blood cell count</t>
+  </si>
+  <si>
+    <t>cells/mL</t>
+  </si>
+  <si>
+    <t>clinical signs and symptoms of wound deterioration</t>
+  </si>
+  <si>
+    <t>wound deterioration increase in size</t>
+  </si>
+  <si>
+    <t>Position on the 96 well plate</t>
+  </si>
+  <si>
+    <t>weighted UniFrac metric</t>
+  </si>
+  <si>
+    <t>MICRO_0000572</t>
+  </si>
+  <si>
+    <t>Skin lesion duration</t>
+  </si>
+  <si>
+    <t>MICRO_0000571</t>
+  </si>
+  <si>
+    <t>Degree of inflammation</t>
+  </si>
+  <si>
+    <t>MICRO_0000570</t>
+  </si>
+  <si>
+    <t>Skin lesion cured (yes/no)</t>
+  </si>
+  <si>
+    <t>MICRO_0000589</t>
+  </si>
+  <si>
+    <t>skin type swabbed</t>
+  </si>
+  <si>
+    <t>MICRO_0000588</t>
+  </si>
+  <si>
+    <t>site of ear swabbed</t>
+  </si>
+  <si>
+    <t>MICRO_0000587</t>
+  </si>
+  <si>
+    <t>MICRO_0000586</t>
+  </si>
+  <si>
+    <t>MICRO_0000585</t>
+  </si>
+  <si>
+    <t>MICRO_0000584</t>
+  </si>
+  <si>
+    <t>MICRO_0000583</t>
+  </si>
+  <si>
+    <t>Pinna lesion score during treatment</t>
+  </si>
+  <si>
+    <t>MICRO_0000582</t>
+  </si>
+  <si>
+    <t>Pinna lesion score before treatment</t>
+  </si>
+  <si>
+    <t>MICRO_0000581</t>
+  </si>
+  <si>
+    <t>Groin lesion score after treatment</t>
+  </si>
+  <si>
+    <t>MICRO_0000580</t>
+  </si>
+  <si>
+    <t>Groin lesion score during treatment</t>
+  </si>
+  <si>
+    <t>MICRO_0000569</t>
+  </si>
+  <si>
+    <t>MICRO_0000568</t>
+  </si>
+  <si>
+    <t>Cage number for a mouse</t>
+  </si>
+  <si>
+    <t>MICRO_0000567</t>
+  </si>
+  <si>
+    <t>Animal cage num for experiment</t>
+  </si>
+  <si>
+    <t>MICRO_0000566</t>
+  </si>
+  <si>
+    <t>MICRO_0000565</t>
+  </si>
+  <si>
+    <t>MICRO_0000564</t>
+  </si>
+  <si>
+    <t>MICRO_0000563</t>
+  </si>
+  <si>
+    <t>MICRO_0000592</t>
+  </si>
+  <si>
+    <t>MICRO_0000591</t>
+  </si>
+  <si>
+    <t>MICRO_0000590</t>
+  </si>
+  <si>
+    <t>MICRO_0000579</t>
+  </si>
+  <si>
+    <t>Groin lesion score before treatment</t>
+  </si>
+  <si>
+    <t>MICRO_0000578</t>
+  </si>
+  <si>
+    <t>Axillary lesion score after treatment</t>
+  </si>
+  <si>
+    <t>MICRO_0000577</t>
+  </si>
+  <si>
+    <t>Axillary lesion score during treatment</t>
+  </si>
+  <si>
+    <t>MICRO_0000576</t>
+  </si>
+  <si>
+    <t>Axillary lesion score before treatment</t>
+  </si>
+  <si>
+    <t>MICRO_0000575</t>
+  </si>
+  <si>
+    <t>Lesion size (area)</t>
+  </si>
+  <si>
+    <t>MICRO_0000574</t>
+  </si>
+  <si>
+    <t>Study group</t>
+  </si>
+  <si>
+    <t>MICRO_0000573</t>
+  </si>
+  <si>
+    <t>Display name</t>
+  </si>
+  <si>
+    <t>Ontology ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent </t>
+  </si>
+  <si>
+    <t>Sample ID on sequencing</t>
+  </si>
+  <si>
+    <t>Human or Animal</t>
+  </si>
+  <si>
+    <t>Skin symptom or sign</t>
+  </si>
+  <si>
+    <t>Visit type</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>OBI_0001616</t>
+  </si>
+  <si>
+    <t>MICRO_0000555</t>
+  </si>
+  <si>
+    <t>UO_0000196</t>
+  </si>
+  <si>
+    <t>EUPATH_0000049</t>
+  </si>
+  <si>
+    <t>existing terms, no need to review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9560,8 +10341,26 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9825,8 +10624,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -9941,8 +10752,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="498">
+  <cellStyleXfs count="504">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10441,8 +11267,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10575,8 +11407,28 @@
     <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="498">
+  <cellStyles count="504">
     <cellStyle name="20% - Accent1" xfId="208" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="212" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="216" builtinId="38" customBuiltin="1"/>
@@ -11051,6 +11903,12 @@
     <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="196" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="192" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="193" builtinId="17" customBuiltin="1"/>
@@ -12709,710 +13567,3927 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="48.83203125" customWidth="1"/>
-    <col min="2" max="3" width="58.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="56" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="38.33203125" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="130" customFormat="1" ht="18">
+      <c r="A1" s="130" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E1" s="130" t="s">
+        <v>2816</v>
+      </c>
+      <c r="F1" s="130" t="s">
+        <v>2976</v>
+      </c>
+      <c r="G1" s="130" t="s">
+        <v>2959</v>
+      </c>
+      <c r="H1" s="130" t="s">
+        <v>2977</v>
+      </c>
+      <c r="I1" s="130" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J1" s="130" t="s">
+        <v>2953</v>
+      </c>
+      <c r="K1" s="130" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="131" customFormat="1">
+      <c r="A2" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D2" s="131" t="s">
+        <v>2979</v>
+      </c>
+      <c r="J2" s="131" t="s">
+        <v>2952</v>
+      </c>
+      <c r="K2" s="131" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="131" customFormat="1">
+      <c r="A3" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B3" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C3" s="131" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D3" s="131" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E3" s="131" t="s">
+        <v>2822</v>
+      </c>
+      <c r="F3" s="131" t="s">
+        <v>2980</v>
+      </c>
+      <c r="J3" s="131" t="s">
+        <v>2981</v>
+      </c>
+      <c r="K3" s="131" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="131" customFormat="1">
+      <c r="A4" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B4" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>2950</v>
+      </c>
+      <c r="D4" s="131" t="s">
+        <v>2950</v>
+      </c>
+      <c r="E4" s="131" t="s">
+        <v>2983</v>
+      </c>
+      <c r="F4" s="131" t="s">
+        <v>2984</v>
+      </c>
+      <c r="I4" s="132" t="s">
+        <v>2985</v>
+      </c>
+      <c r="J4" s="131" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="131" customFormat="1">
+      <c r="A5" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B5" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>2934</v>
+      </c>
+      <c r="D5" s="131" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E5" s="131" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F5" s="131" t="s">
+        <v>2987</v>
+      </c>
+      <c r="I5" s="132" t="s">
+        <v>2988</v>
+      </c>
+      <c r="J5" s="131" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="131" customFormat="1">
+      <c r="A6" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B6" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D6" s="131" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E6" s="131" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F6" s="131" t="s">
+        <v>2987</v>
+      </c>
+      <c r="I6" s="131" t="s">
+        <v>2991</v>
+      </c>
+      <c r="J6" s="131" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="131" customFormat="1">
+      <c r="A7" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B7" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D7" s="131" t="s">
+        <v>2947</v>
+      </c>
+      <c r="E7" s="131" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F7" s="131" t="s">
+        <v>2993</v>
+      </c>
+      <c r="I7" s="132" t="s">
+        <v>2994</v>
+      </c>
+      <c r="J7" s="131" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="131" customFormat="1">
+      <c r="A8" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B8" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D8" s="131" t="s">
+        <v>2948</v>
+      </c>
+      <c r="E8" s="131" t="s">
+        <v>2995</v>
+      </c>
+      <c r="F8" s="131" t="s">
+        <v>2996</v>
+      </c>
+      <c r="I8" s="132" t="s">
+        <v>2997</v>
+      </c>
+      <c r="J8" s="131" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="131" customFormat="1">
+      <c r="A9" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B9" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D9" s="131" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E9" s="131" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F9" s="131" t="s">
+        <v>2998</v>
+      </c>
+      <c r="I9" s="132"/>
+      <c r="J9" s="131" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="131" customFormat="1">
+      <c r="A10" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>2938</v>
+      </c>
+      <c r="D10" s="131" t="s">
+        <v>2938</v>
+      </c>
+      <c r="E10" s="131" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F10" s="131" t="s">
+        <v>2998</v>
+      </c>
+      <c r="I10" s="132" t="s">
+        <v>3000</v>
+      </c>
+      <c r="J10" s="131" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="131" customFormat="1">
+      <c r="A11" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D11" s="131" t="s">
+        <v>2939</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>2939</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>2998</v>
+      </c>
+      <c r="J11" s="131" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="131" customFormat="1">
+      <c r="A12" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B12" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C12" s="131" t="s">
+        <v>2940</v>
+      </c>
+      <c r="D12" s="131" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E12" s="133" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F12" s="133" t="s">
+        <v>2998</v>
+      </c>
+      <c r="J12" s="131" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="131" customFormat="1">
+      <c r="A13" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B13" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D13" s="131" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F13" s="133" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="131" customFormat="1">
+      <c r="A14" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B14" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D14" s="131" t="s">
+        <v>2942</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>2942</v>
+      </c>
+      <c r="F14" s="133" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="131" customFormat="1">
+      <c r="A15" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B15" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D15" s="131" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E15" s="133" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F15" s="133" t="s">
+        <v>2998</v>
+      </c>
+      <c r="J15" s="131" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="131" customFormat="1">
+      <c r="A16" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B16" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>2944</v>
+      </c>
+      <c r="D16" s="131" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F16" s="133" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="131" customFormat="1">
+      <c r="A17" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B17" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>2945</v>
+      </c>
+      <c r="E17" s="133" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F17" s="133" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="131" customFormat="1">
+      <c r="A18" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B18" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D18" s="131" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E18" s="133" t="s">
+        <v>3005</v>
+      </c>
+      <c r="F18" s="133" t="s">
+        <v>2984</v>
+      </c>
+      <c r="I18" s="132" t="s">
+        <v>3006</v>
+      </c>
+      <c r="J18" s="131" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="131" customFormat="1">
+      <c r="A19" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B19" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>577</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>577</v>
+      </c>
+      <c r="E19" s="133" t="s">
+        <v>577</v>
+      </c>
+      <c r="F19" s="133" t="s">
+        <v>577</v>
+      </c>
+      <c r="I19" s="131" t="s">
+        <v>2964</v>
+      </c>
+      <c r="J19" s="131" t="s">
+        <v>577</v>
+      </c>
+      <c r="K19" s="131" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="131" customFormat="1">
+      <c r="A20" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B20" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D20" s="131" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E20" s="133" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F20" s="133" t="s">
+        <v>2987</v>
+      </c>
+      <c r="J20" s="131" t="s">
+        <v>1724</v>
+      </c>
+      <c r="K20" s="131" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="131" customFormat="1">
+      <c r="A21" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B21" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D21" s="131" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E21" s="133" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F21" s="133" t="s">
+        <v>2987</v>
+      </c>
+      <c r="I21" s="132" t="s">
+        <v>3007</v>
+      </c>
+      <c r="J21" s="132" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="134" customFormat="1">
+      <c r="A22" s="134" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B22" s="134" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C22" s="134" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D22" s="134" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E22" s="135" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F22" s="135" t="s">
+        <v>2987</v>
+      </c>
+      <c r="I22" s="134" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="131" customFormat="1">
+      <c r="A23" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B23" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D23" s="131" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>3009</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>3010</v>
+      </c>
+      <c r="I23" s="132" t="s">
+        <v>3011</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>3012</v>
+      </c>
+      <c r="K23" s="45"/>
+    </row>
+    <row r="24" spans="1:11" s="131" customFormat="1">
+      <c r="A24" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B24" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C24" s="131" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D24" s="131" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E24" s="133" t="s">
+        <v>3014</v>
+      </c>
+      <c r="F24" s="133" t="s">
+        <v>2987</v>
+      </c>
+      <c r="I24" s="131" t="s">
+        <v>3015</v>
+      </c>
+      <c r="J24" s="131" t="s">
+        <v>3016</v>
+      </c>
+      <c r="K24" s="131" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="131" customFormat="1">
+      <c r="A25" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B25" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C25" s="131" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D25" s="131" t="s">
+        <v>3019</v>
+      </c>
+      <c r="E25" s="131" t="s">
+        <v>3020</v>
+      </c>
+      <c r="J25" s="132" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="131" customFormat="1">
+      <c r="A26" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C26" s="131" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D26" s="131" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E26" s="131" t="s">
+        <v>3022</v>
+      </c>
+      <c r="J26" s="132" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="134" customFormat="1">
+      <c r="A27" s="134" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B27" s="134" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C27" s="134" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D27" s="136" t="s">
+        <v>3024</v>
+      </c>
+      <c r="I27" s="134" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="131" customFormat="1">
+      <c r="A28" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B28" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C28" s="131" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D28" s="131" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E28" s="131" t="s">
+        <v>3026</v>
+      </c>
+      <c r="G28" s="137" t="s">
+        <v>2960</v>
+      </c>
+      <c r="H28" s="137"/>
+      <c r="J28" s="131" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="134" customFormat="1">
+      <c r="A29" s="134" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B29" s="134" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C29" s="134" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D29" s="134" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E29" s="134" t="s">
+        <v>3028</v>
+      </c>
+      <c r="J29" s="134" t="s">
+        <v>2965</v>
+      </c>
+      <c r="K29" s="134" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="138" customFormat="1">
+      <c r="A30" s="138" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B30" s="138" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C30" s="138" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D30" s="138" t="s">
+        <v>2906</v>
+      </c>
+      <c r="E30" s="138" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="131" customFormat="1">
+      <c r="A31" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B31" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C31" s="131" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D31" s="131" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E31" s="131" t="s">
+        <v>3030</v>
+      </c>
+      <c r="J31" s="131" t="s">
+        <v>3031</v>
+      </c>
+      <c r="K31" s="131" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="131" customFormat="1">
+      <c r="A32" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B32" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C32" s="131" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D32" s="131" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E32" s="131" t="s">
+        <v>3033</v>
+      </c>
+      <c r="F32" s="131" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="131" customFormat="1">
+      <c r="A33" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B33" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C33" s="131" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D33" s="131" t="s">
+        <v>3035</v>
+      </c>
+      <c r="E33" s="131" t="s">
+        <v>3036</v>
+      </c>
+      <c r="I33" s="139" t="s">
+        <v>3037</v>
+      </c>
+      <c r="J33" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="131" customFormat="1">
+      <c r="A34" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B34" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C34" s="131" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D34" s="131" t="s">
+        <v>2929</v>
+      </c>
+      <c r="E34" s="131" t="s">
+        <v>3038</v>
+      </c>
+      <c r="J34" s="131" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="134" customFormat="1">
+      <c r="A35" s="134" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B35" s="134" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C35" s="134" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D35" s="134" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E35" s="134" t="s">
         <v>3040</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="36" spans="1:11" s="131" customFormat="1">
+      <c r="A36" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B36" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C36" s="131" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D36" s="131" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E36" s="131" t="s">
         <v>3041</v>
       </c>
-      <c r="C1" s="129" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2500</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="I36" s="131" t="s">
+        <v>3011</v>
+      </c>
+      <c r="J36" s="131" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="131" customFormat="1">
+      <c r="A37" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B37" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C37" s="131" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D37" s="131" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E37" s="131" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J37" s="131" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="131" customFormat="1">
+      <c r="A38" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B38" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C38" s="131" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D38" s="131" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E38" s="131" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F38" s="131" t="s">
+        <v>3046</v>
+      </c>
+      <c r="I38" s="131" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="131" customFormat="1">
+      <c r="A39" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B39" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C39" s="131" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D39" s="131" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E39" s="131" t="s">
+        <v>3047</v>
+      </c>
+      <c r="F39" s="131" t="s">
+        <v>3048</v>
+      </c>
+      <c r="H39" s="131" t="s">
+        <v>3049</v>
+      </c>
+      <c r="I39" s="131" t="s">
+        <v>3050</v>
+      </c>
+      <c r="J39" s="131" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="131" customFormat="1">
+      <c r="A40" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B40" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C40" s="131" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D40" s="131" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E40" s="131" t="s">
+        <v>3020</v>
+      </c>
+      <c r="J40" s="131" t="s">
+        <v>2956</v>
+      </c>
+      <c r="K40" s="131" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="131" customFormat="1">
+      <c r="A41" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B41" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C41" s="131" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D41" s="131" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E41" s="131" t="s">
+        <v>3022</v>
+      </c>
+      <c r="J41" s="131" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="131" customFormat="1">
+      <c r="A42" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B42" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C42" s="131" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D42" s="131" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E42" s="131" t="s">
+        <v>3026</v>
+      </c>
+      <c r="G42" s="137" t="s">
+        <v>2960</v>
+      </c>
+      <c r="I42" s="137"/>
+    </row>
+    <row r="43" spans="1:11" s="131" customFormat="1">
+      <c r="A43" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B43" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C43" s="131" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D43" s="131" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E43" s="131" t="s">
+        <v>3028</v>
+      </c>
+      <c r="J43" s="131" t="s">
+        <v>2965</v>
+      </c>
+      <c r="K43" s="131" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="131" customFormat="1">
+      <c r="A44" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B44" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C44" s="131" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D44" s="131" t="s">
+        <v>2906</v>
+      </c>
+      <c r="E44" s="131" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="131" customFormat="1">
+      <c r="A45" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B45" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C45" s="131" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D45" s="131" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E45" s="131" t="s">
+        <v>3030</v>
+      </c>
+      <c r="J45" s="131" t="s">
+        <v>2952</v>
+      </c>
+      <c r="K45" s="131" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="131" customFormat="1">
+      <c r="A46" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B46" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C46" s="131" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D46" s="131" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E46" s="131" t="s">
+        <v>3033</v>
+      </c>
+      <c r="F46" s="131" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="131" customFormat="1">
+      <c r="A47" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B47" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C47" s="131" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D47" s="131" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E47" s="131" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="131" customFormat="1">
+      <c r="A48" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B48" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C48" s="131" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D48" s="131" t="s">
+        <v>2929</v>
+      </c>
+      <c r="E48" s="131" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="131" customFormat="1">
+      <c r="A49" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B49" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C49" s="131" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D49" s="131" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E49" s="131" t="s">
+        <v>3040</v>
+      </c>
+      <c r="J49" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="131" customFormat="1">
+      <c r="A50" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B50" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C50" s="131" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D50" s="131" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E50" s="131" t="s">
+        <v>3041</v>
+      </c>
+      <c r="J50" s="131" t="s">
+        <v>2965</v>
+      </c>
+      <c r="K50" s="131" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="131" customFormat="1">
+      <c r="A51" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B51" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C51" s="131" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D51" s="131" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E51" s="131" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J51" s="131" t="s">
+        <v>2471</v>
+      </c>
+      <c r="K51" s="131" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="131" customFormat="1">
+      <c r="A52" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B52" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C52" s="131" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D52" s="131" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E52" s="131" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F52" s="131" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="131" customFormat="1">
+      <c r="A53" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B53" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C53" s="131" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D53" s="131" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E53" s="131" t="s">
+        <v>3047</v>
+      </c>
+      <c r="F53" s="131" t="s">
+        <v>3048</v>
+      </c>
+      <c r="H53" s="137" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="131" customFormat="1">
+      <c r="A54" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B54" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C54" s="131" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D54" s="131" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E54" s="131" t="s">
+        <v>3020</v>
+      </c>
+      <c r="J54" s="131" t="s">
+        <v>2956</v>
+      </c>
+      <c r="K54" s="131" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="131" customFormat="1">
+      <c r="A55" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B55" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C55" s="131" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D55" s="131" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E55" s="131" t="s">
+        <v>3026</v>
+      </c>
+      <c r="G55" s="131" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="131" customFormat="1">
+      <c r="A56" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B56" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C56" s="131" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D56" s="131" t="s">
+        <v>2906</v>
+      </c>
+      <c r="E56" s="131" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="131" customFormat="1">
+      <c r="A57" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B57" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C57" s="131" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D57" s="131" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E57" s="131" t="s">
+        <v>3030</v>
+      </c>
+      <c r="J57" s="131" t="s">
+        <v>2952</v>
+      </c>
+      <c r="K57" s="131" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="131" customFormat="1">
+      <c r="A58" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B58" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C58" s="131" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D58" s="131" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E58" s="131" t="s">
+        <v>3033</v>
+      </c>
+      <c r="F58" s="131" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="131" customFormat="1">
+      <c r="A59" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B59" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C59" s="131" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D59" s="131" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E59" s="131" t="s">
+        <v>3040</v>
+      </c>
+      <c r="J59" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="131" customFormat="1">
+      <c r="A60" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B60" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C60" s="131" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D60" s="131" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E60" s="131" t="s">
+        <v>3041</v>
+      </c>
+      <c r="J60" s="131" t="s">
+        <v>2965</v>
+      </c>
+      <c r="K60" s="131" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="131" customFormat="1">
+      <c r="A61" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B61" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C61" s="131" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D61" s="131" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E61" s="131" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J61" s="131" t="s">
+        <v>2471</v>
+      </c>
+      <c r="K61" s="131" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="131" customFormat="1">
+      <c r="A62" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B62" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C62" s="131" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D62" s="131" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E62" s="131" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F62" s="131" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="131" customFormat="1">
+      <c r="A63" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B63" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C63" s="131" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D63" s="131" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E63" s="131" t="s">
+        <v>3047</v>
+      </c>
+      <c r="F63" s="131" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="131" customFormat="1">
+      <c r="A64" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B64" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C64" s="131" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D64" s="131" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E64" s="131" t="s">
+        <v>3030</v>
+      </c>
+      <c r="J64" s="131" t="s">
+        <v>2952</v>
+      </c>
+      <c r="K64" s="131" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="131" customFormat="1">
+      <c r="A65" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B65" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C65" s="131" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D65" s="131" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E65" s="131" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J65" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="K65" s="131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="131" customFormat="1">
+      <c r="A66" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B66" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C66" s="131" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D66" s="131" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E66" s="131" t="s">
+        <v>3054</v>
+      </c>
+      <c r="G66" s="137" t="s">
+        <v>3055</v>
+      </c>
+      <c r="H66" s="137"/>
+      <c r="I66" s="137" t="s">
+        <v>3056</v>
+      </c>
+      <c r="J66" s="131" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="131" customFormat="1">
+      <c r="A67" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B67" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C67" s="131" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D67" s="131" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E67" s="131" t="s">
+        <v>3058</v>
+      </c>
+      <c r="G67" s="131" t="s">
+        <v>3059</v>
+      </c>
+      <c r="I67" s="137" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="131" customFormat="1">
+      <c r="A68" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B68" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C68" s="131" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D68" s="131" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E68" s="131" t="s">
+        <v>3062</v>
+      </c>
+      <c r="F68" s="131" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="131" customFormat="1">
+      <c r="A69" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B69" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C69" s="131" t="s">
+        <v>2917</v>
+      </c>
+      <c r="D69" s="131" t="s">
+        <v>3064</v>
+      </c>
+      <c r="E69" s="131" t="s">
+        <v>3065</v>
+      </c>
+      <c r="F69" s="131" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="134" customFormat="1">
+      <c r="A70" s="134" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B70" s="134" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C70" s="134" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D70" s="134" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E70" s="134" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F70" s="134" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="131" customFormat="1">
+      <c r="A71" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B71" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C71" s="131" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D71" s="131" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E71" s="131" t="s">
+        <v>3069</v>
+      </c>
+      <c r="F71" s="131" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="131" customFormat="1">
+      <c r="A72" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B72" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C72" s="131" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D72" s="131" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E72" s="131" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="134" customFormat="1">
+      <c r="A73" s="134" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B73" s="134" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C73" s="134" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D73" s="134" t="s">
+        <v>2909</v>
+      </c>
+      <c r="E73" s="134" t="s">
+        <v>3072</v>
+      </c>
+      <c r="I73" s="134" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="134" customFormat="1">
+      <c r="A74" s="134" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B74" s="134" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C74" s="134" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D74" s="134" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E74" s="140" t="s">
+        <v>3028</v>
+      </c>
+      <c r="J74" s="134" t="s">
+        <v>2965</v>
+      </c>
+      <c r="K74" s="134" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="134" customFormat="1">
+      <c r="A75" s="134" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B75" s="134" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C75" s="134" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D75" s="134" t="s">
+        <v>2906</v>
+      </c>
+      <c r="E75" s="134" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="131" customFormat="1">
+      <c r="A76" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B76" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C76" s="131" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D76" s="131" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E76" s="131" t="s">
+        <v>3073</v>
+      </c>
+      <c r="J76" s="131" t="s">
+        <v>1724</v>
+      </c>
+      <c r="K76" s="131" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="131" customFormat="1">
+      <c r="A77" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B77" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C77" s="131" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D77" s="131" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E77" s="131" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="131" customFormat="1">
+      <c r="A78" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B78" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C78" s="131" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D78" s="131" t="s">
+        <v>2911</v>
+      </c>
+      <c r="E78" s="131" t="s">
+        <v>3075</v>
+      </c>
+      <c r="H78" s="131" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="134" customFormat="1">
+      <c r="A79" s="134" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B79" s="134" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C79" s="134" t="s">
+        <v>2910</v>
+      </c>
+      <c r="D79" s="134" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E79" s="134" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="134" customFormat="1">
+      <c r="A80" s="134" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B80" s="134" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C80" s="134" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D80" s="134" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E80" s="134" t="s">
+        <v>3041</v>
+      </c>
+      <c r="J80" s="134" t="s">
+        <v>2965</v>
+      </c>
+      <c r="K80" s="134" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="131" customFormat="1">
+      <c r="A81" s="131" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B81" s="131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C81" s="131" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D81" s="131" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E81" s="131" t="s">
+        <v>3078</v>
+      </c>
+      <c r="J81" s="131" t="s">
+        <v>2471</v>
+      </c>
+      <c r="K81" s="131" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="131" customFormat="1"/>
+    <row r="83" spans="1:11" s="131" customFormat="1">
+      <c r="A83" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B83" s="131" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C83" s="131" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D83" s="131" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E83" s="131" t="s">
+        <v>3080</v>
+      </c>
+      <c r="H83" s="137"/>
+    </row>
+    <row r="84" spans="1:11" s="131" customFormat="1">
+      <c r="A84" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B84" s="131" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C84" s="131" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D84" s="131" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E84" s="131" t="s">
+        <v>3081</v>
+      </c>
+      <c r="F84" s="131" t="s">
+        <v>3082</v>
+      </c>
+      <c r="H84" s="131" t="s">
+        <v>2904</v>
+      </c>
+      <c r="I84" s="131" t="s">
+        <v>2955</v>
+      </c>
+      <c r="J84" s="131" t="s">
         <v>2509</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2503</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>2449</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>2499</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>2447</v>
-      </c>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2510</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>2453</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>2549</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>2505</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>2784</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>2451</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>2513</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>2795</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>2512</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>3039</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>2517</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>940</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>939</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>943</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>942</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>946</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>945</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>2516</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>2454</v>
-      </c>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>2527</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>2461</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>2550</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>964</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>2694</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>2548</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+    </row>
+    <row r="85" spans="1:11" s="131" customFormat="1">
+      <c r="A85" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B85" s="131" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C85" s="131" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D85" s="131" t="s">
+        <v>3083</v>
+      </c>
+      <c r="E85" s="131" t="s">
+        <v>3084</v>
+      </c>
+      <c r="F85" s="131" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="138" customFormat="1">
+      <c r="A86" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B86" s="138" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C86" s="138" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D86" s="138" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F86" s="138" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="138" customFormat="1">
+      <c r="A87" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B87" s="138" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C87" s="138" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D87" s="138" t="s">
+        <v>3088</v>
+      </c>
+      <c r="F87" s="138" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="131" customFormat="1">
+      <c r="A88" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B88" s="131" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C88" s="131" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D88" s="131" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E88" s="131" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F88" s="131" t="s">
+        <v>3085</v>
+      </c>
+      <c r="I88" s="131" t="s">
+        <v>2726</v>
+      </c>
+      <c r="J88" s="131" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="138" customFormat="1">
+      <c r="A89" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B89" s="138" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D89" s="138" t="s">
+        <v>3091</v>
+      </c>
+      <c r="H89" s="141"/>
+    </row>
+    <row r="90" spans="1:11" s="138" customFormat="1">
+      <c r="A90" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B90" s="138" t="s">
+        <v>2872</v>
+      </c>
+      <c r="H90" s="141"/>
+    </row>
+    <row r="91" spans="1:11" s="138" customFormat="1">
+      <c r="A91" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B91" s="138" t="s">
+        <v>2873</v>
+      </c>
+      <c r="H91" s="141"/>
+    </row>
+    <row r="92" spans="1:11" s="138" customFormat="1">
+      <c r="A92" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B92" s="138" t="s">
+        <v>2874</v>
+      </c>
+      <c r="H92" s="141"/>
+    </row>
+    <row r="93" spans="1:11" s="138" customFormat="1">
+      <c r="A93" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B93" s="138" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C93" s="138" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D93" s="138" t="s">
+        <v>3092</v>
+      </c>
+      <c r="H93" s="141"/>
+    </row>
+    <row r="94" spans="1:11" s="131" customFormat="1">
+      <c r="A94" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B94" s="131" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C94" s="131" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D94" s="131" t="s">
+        <v>3093</v>
+      </c>
+      <c r="H94" s="137"/>
+    </row>
+    <row r="95" spans="1:11" s="138" customFormat="1">
+      <c r="A95" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B95" s="138" t="s">
+        <v>2855</v>
+      </c>
+      <c r="H95" s="141"/>
+    </row>
+    <row r="96" spans="1:11" s="138" customFormat="1">
+      <c r="A96" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B96" s="138" t="s">
+        <v>2826</v>
+      </c>
+      <c r="H96" s="141"/>
+    </row>
+    <row r="97" spans="1:7" s="131" customFormat="1">
+      <c r="A97" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B97" s="131" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="131" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D97" s="131" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E97" s="131" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F97" s="131" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="131" customFormat="1">
+      <c r="A98" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B98" s="131" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C98" s="131" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D98" s="131" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E98" s="131" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F98" s="131" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="131" customFormat="1">
+      <c r="A99" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B99" s="131" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C99" s="131" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D99" s="131" t="s">
+        <v>3098</v>
+      </c>
+      <c r="E99" s="131" t="s">
+        <v>3098</v>
+      </c>
+      <c r="F99" s="131" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="131" customFormat="1">
+      <c r="A100" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B100" s="131" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C100" s="131" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D100" s="131" t="s">
+        <v>3100</v>
+      </c>
+      <c r="F100" s="142" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="138" customFormat="1">
+      <c r="A101" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B101" s="138" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D101" s="138" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="131" customFormat="1">
+      <c r="A102" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B102" s="131" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D102" s="131" t="s">
+        <v>3103</v>
+      </c>
+      <c r="G102" s="131" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="131" customFormat="1">
+      <c r="A103" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B103" s="131" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D103" s="131" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E103" s="131" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F103" s="131" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="138" customFormat="1">
+      <c r="A104" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B104" s="138" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D104" s="138" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F104" s="138" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="131" customFormat="1">
+      <c r="A105" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B105" s="131" t="s">
+        <v>2836</v>
+      </c>
+      <c r="D105" s="131" t="s">
+        <v>3109</v>
+      </c>
+      <c r="E105" s="131" t="s">
+        <v>3110</v>
+      </c>
+      <c r="F105" s="131" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="138" customFormat="1">
+      <c r="A106" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B106" s="138" t="s">
+        <v>2876</v>
+      </c>
+      <c r="G106" s="141"/>
+    </row>
+    <row r="107" spans="1:7" s="138" customFormat="1">
+      <c r="A107" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B107" s="138" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="131" customFormat="1">
+      <c r="A108" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B108" s="131" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D108" s="131" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E108" s="131" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="131" customFormat="1">
+      <c r="A109" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B109" s="131" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D109" s="131" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E109" s="131" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="131" customFormat="1">
+      <c r="A110" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B110" s="131" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D110" s="131" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E110" s="131" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="131" customFormat="1">
+      <c r="A111" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B111" s="131" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D111" s="131" t="s">
+        <v>3117</v>
+      </c>
+      <c r="F111" s="131" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="138" customFormat="1">
+      <c r="A112" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B112" s="138" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="138" customFormat="1">
+      <c r="A113" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B113" s="138" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="138" customFormat="1">
+      <c r="A114" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B114" s="138" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="138" customFormat="1">
+      <c r="A115" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B115" s="138" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="138" customFormat="1">
+      <c r="A116" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B116" s="138" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="138" customFormat="1">
+      <c r="A117" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B117" s="138" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="131" customFormat="1">
+      <c r="A118" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B118" s="131" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D118" s="131" t="s">
+        <v>3119</v>
+      </c>
+      <c r="F118" s="131" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="138" customFormat="1">
+      <c r="A119" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B119" s="138" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="131" customFormat="1">
+      <c r="A120" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B120" s="131" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D120" s="131" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E120" s="131" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F120" s="131" t="s">
+        <v>3085</v>
+      </c>
+      <c r="G120" s="131" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="138" customFormat="1">
+      <c r="A121" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B121" s="138" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="138" customFormat="1">
+      <c r="A122" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B122" s="138" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="131" customFormat="1">
+      <c r="A123" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B123" s="131" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D123" s="131" t="s">
+        <v>3124</v>
+      </c>
+      <c r="G123" s="131" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="131" customFormat="1">
+      <c r="A124" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B124" s="131" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D124" s="131" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="138" customFormat="1">
+      <c r="A125" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B125" s="138" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="138" customFormat="1">
+      <c r="A126" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B126" s="138" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="138" customFormat="1">
+      <c r="A127" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B127" s="138" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="138" customFormat="1">
+      <c r="A128" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B128" s="138" t="s">
+        <v>2824</v>
+      </c>
+      <c r="I128" s="138" t="s">
+        <v>2967</v>
+      </c>
+      <c r="J128" s="138" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="138" customFormat="1">
+      <c r="A129" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B129" s="138" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="138" customFormat="1">
+      <c r="A130" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B130" s="138" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="138" customFormat="1">
+      <c r="A131" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B131" s="138" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="131" customFormat="1">
+      <c r="A132" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B132" s="131" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D132" s="131" t="s">
+        <v>3126</v>
+      </c>
+      <c r="I132" s="131" t="s">
+        <v>2952</v>
+      </c>
+      <c r="J132" s="131" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="131" customFormat="1">
+      <c r="A133" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B133" s="131" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D133" s="131" t="s">
+        <v>2823</v>
+      </c>
+      <c r="G133" s="131" t="s">
+        <v>3127</v>
+      </c>
+      <c r="I133" s="131" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J133" s="131" t="s">
         <v>2547</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>2551</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>2518</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>2801</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2802</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>2521</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>2522</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>2520</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>2456</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2804</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>2519</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>2455</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2807</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>2529</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>2463</v>
-      </c>
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>2530</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>2464</v>
-      </c>
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>2465</v>
-      </c>
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>2532</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>2466</v>
-      </c>
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>2523</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>2457</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>2524</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>2458</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>2525</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>2459</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>572</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>2534</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>2535</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>2467</v>
-      </c>
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>2579</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C51"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>2580</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C52"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>2468</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>2537</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>2496</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C55"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>2538</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C56"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>2582</v>
-      </c>
-      <c r="B57" s="42" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C57"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+    </row>
+    <row r="134" spans="1:10" s="138" customFormat="1">
+      <c r="A134" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B134" s="138" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="138" customFormat="1">
+      <c r="A135" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B135" s="138" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D135" s="138" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="138" customFormat="1">
+      <c r="A136" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B136" s="138" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D136" s="138" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="131" customFormat="1">
+      <c r="A137" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B137" s="131" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D137" s="131" t="s">
+        <v>3130</v>
+      </c>
+      <c r="I137" s="131" t="s">
+        <v>2471</v>
+      </c>
+      <c r="J137" s="131" t="s">
         <v>2539</v>
       </c>
-      <c r="B58" s="42" t="s">
-        <v>2471</v>
-      </c>
-      <c r="C58"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>2540</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C59"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>2541</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C60"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>901</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>2504</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>2450</v>
-      </c>
-      <c r="C62"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>2528</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>2462</v>
-      </c>
-      <c r="C63"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>2526</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C64"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>2555</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C65"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B67" s="42" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>2546</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>2469</v>
-      </c>
-      <c r="C68"/>
+    </row>
+    <row r="138" spans="1:10" s="138" customFormat="1">
+      <c r="A138" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B138" s="138" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="131" customFormat="1">
+      <c r="A139" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B139" s="131" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C139" s="131" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D139" s="131" t="s">
+        <v>3132</v>
+      </c>
+      <c r="F139" s="131" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="131" customFormat="1">
+      <c r="A140" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B140" s="131" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C140" s="131" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D140" s="131" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="131" customFormat="1">
+      <c r="A141" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B141" s="131" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C141" s="131" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D141" s="131" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="131" customFormat="1">
+      <c r="A142" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B142" s="131" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C142" s="131" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D142" s="131" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="131" customFormat="1">
+      <c r="A143" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B143" s="131" t="s">
+        <v>2841</v>
+      </c>
+      <c r="C143" s="131" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D143" s="131" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="131" customFormat="1">
+      <c r="A144" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B144" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C144" s="131" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D144" s="131" t="s">
+        <v>3140</v>
+      </c>
+      <c r="F144" s="131" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="131" customFormat="1">
+      <c r="A145" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B145" s="131" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C145" s="131" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D145" s="131" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E145" s="142"/>
+      <c r="F145" s="142"/>
+      <c r="G145" s="131" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="138" customFormat="1">
+      <c r="A146" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B146" s="138" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D146" s="138" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="131" customFormat="1">
+      <c r="A147" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B147" s="131" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C147" s="131" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E147" s="131" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="131" customFormat="1">
+      <c r="A148" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B148" s="131" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C148" s="131" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E148" s="131" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="131" customFormat="1">
+      <c r="A149" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B149" s="131" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C149" s="131" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E149" s="131" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="131" customFormat="1">
+      <c r="A150" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B150" s="131" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C150" s="131" t="s">
+        <v>3151</v>
+      </c>
+      <c r="E150" s="131" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="138" customFormat="1">
+      <c r="A151" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B151" s="138" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="138" customFormat="1">
+      <c r="A152" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B152" s="138" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="131" customFormat="1">
+      <c r="A153" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B153" s="131" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C153" s="131" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E153" s="131" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="131" customFormat="1">
+      <c r="A154" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B154" s="131" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C154" s="131" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E154" s="131" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="131" customFormat="1">
+      <c r="A155" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B155" s="131" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C155" s="131" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E155" s="131" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="138" customFormat="1">
+      <c r="A156" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B156" s="138" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="131" customFormat="1">
+      <c r="A157" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B157" s="131" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C157" s="131" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E157" s="131" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="131" customFormat="1">
+      <c r="A158" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B158" s="131" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C158" s="131" t="s">
+        <v>3161</v>
+      </c>
+      <c r="E158" s="131" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="131" customFormat="1">
+      <c r="A159" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B159" s="131" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C159" s="131" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E159" s="131" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="131" customFormat="1">
+      <c r="A160" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B160" s="131" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C160" s="131" t="s">
+        <v>3165</v>
+      </c>
+      <c r="E160" s="131" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="131" customFormat="1">
+      <c r="A161" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B161" s="131" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C161" s="131" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E161" s="131" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="131" customFormat="1">
+      <c r="A162" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B162" s="131" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C162" s="131" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E162" s="131" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="131" customFormat="1">
+      <c r="A163" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B163" s="131" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C163" s="131" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E163" s="131" t="s">
+        <v>3169</v>
+      </c>
+      <c r="G163" s="137"/>
+    </row>
+    <row r="164" spans="1:7" s="131" customFormat="1">
+      <c r="A164" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B164" s="131" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C164" s="131" t="s">
+        <v>2844</v>
+      </c>
+      <c r="E164" s="131" t="s">
+        <v>3170</v>
+      </c>
+      <c r="G164" s="137"/>
+    </row>
+    <row r="165" spans="1:7" s="131" customFormat="1">
+      <c r="A165" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B165" s="131" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C165" s="131" t="s">
+        <v>2838</v>
+      </c>
+      <c r="E165" s="131" t="s">
+        <v>3171</v>
+      </c>
+      <c r="F165" s="131" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="131" customFormat="1">
+      <c r="A166" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B166" s="131" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C166" s="131" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E166" s="131" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="131" customFormat="1">
+      <c r="A167" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B167" s="131" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C167" s="131" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E167" s="131" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="131" customFormat="1">
+      <c r="A168" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B168" s="131" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C168" s="131" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E168" s="131" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="138" customFormat="1">
+      <c r="A169" s="138" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B169" s="138" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C169" s="138" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D169" s="138" t="s">
+        <v>3176</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" style="7" customWidth="1"/>
+    <col min="2" max="3" width="32.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="56" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="130" customFormat="1" ht="18">
+      <c r="A1" s="130" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B1" s="147" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E1" s="130" t="s">
+        <v>2975</v>
+      </c>
+      <c r="F1" s="130" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G1" s="130" t="s">
+        <v>2976</v>
+      </c>
+      <c r="H1" s="130" t="s">
+        <v>2959</v>
+      </c>
+      <c r="I1" s="130" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="131" customFormat="1">
+      <c r="A2" s="131" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D2" s="131" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E2" s="131" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="131" customFormat="1">
+      <c r="A3" s="131" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B3" s="148" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C3" s="131" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D3" s="131" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E3" s="131" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F3" s="131" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="131" customFormat="1">
+      <c r="A4" s="131" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B4" s="148" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D4" s="131" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E4" s="131" t="s">
+        <v>2822</v>
+      </c>
+      <c r="F4" s="131" t="s">
+        <v>2822</v>
+      </c>
+      <c r="G4" s="131" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="131" customFormat="1">
+      <c r="A5" s="131" t="s">
+        <v>577</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>577</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D5" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E5" s="131" t="s">
+        <v>577</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>577</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="131" customFormat="1">
+      <c r="A6" s="131" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B6" s="148" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D6" s="131" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E6" s="131" t="s">
+        <v>3013</v>
+      </c>
+      <c r="F6" s="133" t="s">
+        <v>3014</v>
+      </c>
+      <c r="G6" s="133" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="131" customFormat="1">
+      <c r="A7" s="131" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B7" s="131" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D7" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E7" s="131" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F7" s="131" t="s">
+        <v>2983</v>
+      </c>
+      <c r="G7" s="131" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="131" customFormat="1">
+      <c r="A8" s="131" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B8" s="131" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D8" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E8" s="131" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F8" s="131" t="s">
+        <v>2986</v>
+      </c>
+      <c r="G8" s="131" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="131" customFormat="1">
+      <c r="A9" s="131" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B9" s="131" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D9" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E9" s="131" t="s">
+        <v>2919</v>
+      </c>
+      <c r="F9" s="131" t="s">
+        <v>3054</v>
+      </c>
+      <c r="H9" s="137" t="s">
+        <v>3055</v>
+      </c>
+      <c r="I9" s="137"/>
+    </row>
+    <row r="10" spans="1:9" s="131" customFormat="1">
+      <c r="A10" s="131" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D10" s="131" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E10" s="131" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F10" s="131" t="s">
+        <v>2990</v>
+      </c>
+      <c r="G10" s="131" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="131" customFormat="1">
+      <c r="A11" s="131" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D11" s="131" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E11" s="131" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F11" s="131" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="131" customFormat="1">
+      <c r="A12" s="131" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B12" s="131" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D12" s="131" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E12" s="131" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F12" s="131" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="131" customFormat="1">
+      <c r="A13" s="131" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B13" s="131" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3199</v>
+      </c>
+      <c r="D13" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E13" s="131" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F13" s="131" t="s">
+        <v>2992</v>
+      </c>
+      <c r="G13" s="131" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="131" customFormat="1">
+      <c r="A14" s="131" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B14" s="131" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D14" s="131" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E14" s="131" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F14" s="131" t="s">
+        <v>3058</v>
+      </c>
+      <c r="H14" s="131" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="131" customFormat="1">
+      <c r="A15" s="131" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B15" s="131" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D15" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E15" s="131" t="s">
+        <v>3061</v>
+      </c>
+      <c r="F15" s="131" t="s">
+        <v>3062</v>
+      </c>
+      <c r="G15" s="131" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="131" customFormat="1">
+      <c r="A16" s="131" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B16" s="131" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D16" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E16" s="131" t="s">
+        <v>3064</v>
+      </c>
+      <c r="F16" s="131" t="s">
+        <v>3065</v>
+      </c>
+      <c r="G16" s="131" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="131" customFormat="1">
+      <c r="A17" s="131" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B17" s="131" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E17" s="131" t="s">
+        <v>2948</v>
+      </c>
+      <c r="F17" s="131" t="s">
+        <v>2995</v>
+      </c>
+      <c r="G17" s="131" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="131" customFormat="1">
+      <c r="A18" s="131" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B18" s="131" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3221</v>
+      </c>
+      <c r="D18" s="131" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E18" s="131" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>3026</v>
+      </c>
+      <c r="H18" s="137" t="s">
+        <v>2960</v>
+      </c>
+      <c r="I18" s="137"/>
+    </row>
+    <row r="19" spans="1:9" s="131" customFormat="1">
+      <c r="A19" s="131" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B19" s="131" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3219</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E19" s="131" t="s">
+        <v>2916</v>
+      </c>
+      <c r="F19" s="131" t="s">
+        <v>3069</v>
+      </c>
+      <c r="G19" s="131" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="131" customFormat="1">
+      <c r="A20" s="131" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B20" s="131" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D20" s="131" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E20" s="131" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F20" s="131" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G20" s="131" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="131" customFormat="1">
+      <c r="A21" s="131" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B21" s="131" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D21" s="131" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E21" s="131" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F21" s="131" t="s">
+        <v>2938</v>
+      </c>
+      <c r="G21" s="131" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="131" customFormat="1">
+      <c r="A22" s="131" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B22" s="131" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D22" s="131" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E22" s="131" t="s">
+        <v>2939</v>
+      </c>
+      <c r="F22" s="133" t="s">
+        <v>2939</v>
+      </c>
+      <c r="G22" s="133" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="131" customFormat="1">
+      <c r="A23" s="131" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B23" s="131" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D23" s="131" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E23" s="131" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F23" s="133" t="s">
+        <v>2940</v>
+      </c>
+      <c r="G23" s="133" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="131" customFormat="1">
+      <c r="A24" s="131" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B24" s="131" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D24" s="131" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E24" s="131" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F24" s="133" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G24" s="133" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="131" customFormat="1">
+      <c r="A25" s="131" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B25" s="131" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D25" s="131" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E25" s="131" t="s">
+        <v>2942</v>
+      </c>
+      <c r="F25" s="133" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G25" s="133" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="131" customFormat="1">
+      <c r="A26" s="131" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3193</v>
+      </c>
+      <c r="D26" s="131" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E26" s="131" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F26" s="133" t="s">
+        <v>2943</v>
+      </c>
+      <c r="G26" s="133" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="131" customFormat="1">
+      <c r="A27" s="131" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B27" s="131" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D27" s="131" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E27" s="131" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F27" s="133" t="s">
+        <v>2944</v>
+      </c>
+      <c r="G27" s="133" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="131" customFormat="1">
+      <c r="A28" s="131" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B28" s="131" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D28" s="131" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E28" s="131" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F28" s="133" t="s">
+        <v>2945</v>
+      </c>
+      <c r="G28" s="133" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="131" customFormat="1">
+      <c r="A29" s="131" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B29" s="133" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D29" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E29" s="131" t="s">
+        <v>2949</v>
+      </c>
+      <c r="F29" s="133" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G29" s="133" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="131" customFormat="1">
+      <c r="A30" s="131" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B30" s="131" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D30" s="131" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E30" s="131" t="s">
+        <v>3070</v>
+      </c>
+      <c r="F30" s="131" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="131" customFormat="1">
+      <c r="A31" s="131" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B31" s="131" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D31" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E31" s="131" t="s">
+        <v>3032</v>
+      </c>
+      <c r="F31" s="131" t="s">
+        <v>3033</v>
+      </c>
+      <c r="G31" s="131" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="131" customFormat="1">
+      <c r="A32" s="131" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B32" s="131" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D32" s="131" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E32" s="131" t="s">
+        <v>3035</v>
+      </c>
+      <c r="F32" s="131" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="131" customFormat="1">
+      <c r="A33" s="131" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B33" s="131" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D33" s="131" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E33" s="131" t="s">
+        <v>2929</v>
+      </c>
+      <c r="F33" s="131" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="131" customFormat="1">
+      <c r="A34" s="131" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B34" s="131" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D34" s="131" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E34" s="131" t="s">
+        <v>2911</v>
+      </c>
+      <c r="F34" s="131" t="s">
+        <v>3075</v>
+      </c>
+      <c r="I34" s="131" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="131" customFormat="1">
+      <c r="A35" s="131" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B35" s="143" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D35" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E35" s="131" t="s">
+        <v>2946</v>
+      </c>
+      <c r="F35" s="143" t="s">
+        <v>3009</v>
+      </c>
+      <c r="G35" s="143" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="131" customFormat="1">
+      <c r="A36" s="131" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B36" s="131" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D36" s="131" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E36" s="131" t="s">
+        <v>3044</v>
+      </c>
+      <c r="F36" s="131" t="s">
+        <v>3045</v>
+      </c>
+      <c r="G36" s="131" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="131" customFormat="1">
+      <c r="A37" s="131" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B37" s="131" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D37" s="131" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E37" s="131" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F37" s="131" t="s">
+        <v>3047</v>
+      </c>
+      <c r="G37" s="131" t="s">
+        <v>3048</v>
+      </c>
+      <c r="I37" s="131" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="131" customFormat="1">
+      <c r="A38" s="131" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B38" s="144" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="131" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F38" s="131" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="131" customFormat="1">
+      <c r="A39" s="131" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B39" s="144" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E39" s="131" t="s">
+        <v>3039</v>
+      </c>
+      <c r="F39" s="131" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="131" customFormat="1">
+      <c r="A40" s="131" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B40" s="144" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="131" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F40" s="131" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="131" customFormat="1">
+      <c r="A41" s="131" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B41" s="144" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="131" t="s">
+        <v>2912</v>
+      </c>
+      <c r="F41" s="131" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="145"/>
+      <c r="B44" s="146" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C44" s="149"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -46247,7 +50322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
@@ -46580,10 +50655,10 @@
         <v>1665</v>
       </c>
       <c r="D12" t="s">
-        <v>3039</v>
+        <v>2970</v>
       </c>
       <c r="E12" t="s">
-        <v>3038</v>
+        <v>2969</v>
       </c>
       <c r="F12" s="94" t="s">
         <v>1774</v>
@@ -46693,7 +50768,7 @@
         <v>942</v>
       </c>
       <c r="E16" t="s">
-        <v>3042</v>
+        <v>2973</v>
       </c>
       <c r="F16" s="94" t="s">
         <v>1774</v>
@@ -54458,2237 +58533,707 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E221" sqref="E221"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="46.5" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="48.83203125" customWidth="1"/>
+    <col min="2" max="3" width="58.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="116" customFormat="1" ht="18">
-      <c r="A1" s="116" t="s">
-        <v>2814</v>
-      </c>
-      <c r="B1" s="116" t="s">
-        <v>2687</v>
-      </c>
-      <c r="C1" s="116" t="s">
-        <v>3022</v>
-      </c>
-      <c r="D1" s="116" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E1" s="116" t="s">
-        <v>3012</v>
-      </c>
-      <c r="F1" s="116" t="s">
-        <v>3013</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    <row r="1" spans="1:3" ht="18">
+      <c r="A1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C1" s="129" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2816</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3011</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3010</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>2922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>2500</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2816</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3011</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>2509</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2816</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3011</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>2503</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2816</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3011</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>2499</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2849</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
+        <v>2510</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2931</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2930</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:9">
+        <v>2549</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2933</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
+        <v>2505</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2932</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
+        <v>2507</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2840</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2923</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3014</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>2513</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2840</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3014</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>2512</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2840</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3014</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>323</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>2517</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>940</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>943</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2913</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>1081</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>946</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2818</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3016</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>2516</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2903</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2726</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>2527</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>2550</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>964</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>2548</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2817</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2817</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2917</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2945</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2944</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>83</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2971</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>1078</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2978</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>3020</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2939</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
+        <v>2547</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>137</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2984</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3017</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>2551</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2984</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3017</v>
-      </c>
-      <c r="F35" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>2518</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2984</v>
-      </c>
-      <c r="E36" t="s">
-        <v>3017</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>2521</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2989</v>
-      </c>
-      <c r="E37" t="s">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>2522</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2989</v>
-      </c>
-      <c r="E38" t="s">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>2520</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2929</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2706</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>2707</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>2519</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2890</v>
-      </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:6">
+        <v>2529</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:6">
+        <v>2530</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2892</v>
-      </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2934</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:6">
+        <v>2531</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2935</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:6">
+        <v>2532</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2937</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:6">
+        <v>2523</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2936</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:6">
+        <v>2524</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2952</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:6">
+        <v>2525</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3006</v>
-      </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:6">
+        <v>572</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2909</v>
-      </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:6">
+        <v>2534</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2853</v>
-      </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:6">
+        <v>2535</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2973</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:6">
+        <v>2579</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2820</v>
-      </c>
-      <c r="E52" t="s">
-        <v>2706</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>2707</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>2580</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2873</v>
-      </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:6">
+        <v>2536</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2960</v>
-      </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:6">
+        <v>2537</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2962</v>
-      </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:6">
+        <v>2496</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2844</v>
-      </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:6">
+        <v>2538</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>2582</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>2539</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B59" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>2540</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>2541</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>901</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>2504</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>2528</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2837</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>2526</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2951</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>2555</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2921</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>1033</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>1075</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2943</v>
-      </c>
-      <c r="E68" t="s">
-        <v>3024</v>
-      </c>
-      <c r="F68" t="s">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2979</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2976</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2948</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2846</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2855</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2977</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2828</v>
-      </c>
-      <c r="D78" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2829</v>
-      </c>
-      <c r="D79" t="s">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2946</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2854</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2983</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2983</v>
-      </c>
-      <c r="C83" t="s">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2983</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2894</v>
-      </c>
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2906</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2888</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2852</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2938</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2918</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2821</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2996</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B103" t="s">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B104" t="s">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B105" t="s">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B106" t="s">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B107" t="s">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B108" t="s">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B109" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B111" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B112" t="s">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B113" t="s">
-        <v>2857</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B115" t="s">
-        <v>2899</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2974</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B119" t="s">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B120" t="s">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2968</v>
-      </c>
-      <c r="D122" t="s">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B124" t="s">
-        <v>577</v>
-      </c>
-      <c r="D124" t="s">
-        <v>3029</v>
-      </c>
-      <c r="E124" t="s">
-        <v>577</v>
-      </c>
-      <c r="F124" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2966</v>
-      </c>
-      <c r="E126" t="s">
-        <v>3030</v>
-      </c>
-      <c r="F126" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2966</v>
-      </c>
-      <c r="E127" t="s">
-        <v>3030</v>
-      </c>
-      <c r="F127" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2966</v>
-      </c>
-      <c r="E128" t="s">
-        <v>3030</v>
-      </c>
-      <c r="F128" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B129" t="s">
-        <v>2911</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B130" t="s">
-        <v>2950</v>
-      </c>
-      <c r="D130" t="s">
-        <v>3029</v>
-      </c>
-      <c r="E130" t="s">
-        <v>3032</v>
-      </c>
-      <c r="F130" t="s">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B131" t="s">
-        <v>2842</v>
-      </c>
-      <c r="E131" t="s">
-        <v>3032</v>
-      </c>
-      <c r="F131" t="s">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B132" t="s">
-        <v>2904</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B133" t="s">
-        <v>2905</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B134" t="s">
-        <v>2830</v>
-      </c>
-      <c r="D134" t="s">
-        <v>2833</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B135" t="s">
-        <v>2915</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B136" t="s">
-        <v>2925</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B138" t="s">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B139" t="s">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B140" t="s">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B141" t="s">
-        <v>2866</v>
-      </c>
-      <c r="E141" t="s">
-        <v>3011</v>
-      </c>
-      <c r="F141" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2866</v>
-      </c>
-      <c r="E142" t="s">
-        <v>3011</v>
-      </c>
-      <c r="F142" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B143" t="s">
-        <v>2866</v>
-      </c>
-      <c r="E143" t="s">
-        <v>3011</v>
-      </c>
-      <c r="F143" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B144" t="s">
-        <v>2866</v>
-      </c>
-      <c r="E144" t="s">
-        <v>3011</v>
-      </c>
-      <c r="F144" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B145" t="s">
-        <v>2866</v>
-      </c>
-      <c r="E145" t="s">
-        <v>3011</v>
-      </c>
-      <c r="F145" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2927</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B147" t="s">
-        <v>2926</v>
-      </c>
-      <c r="C147" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B148" t="s">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B149" t="s">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B150" t="s">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B151" t="s">
-        <v>2841</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1724</v>
-      </c>
-      <c r="F151" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B152" t="s">
-        <v>2841</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1724</v>
-      </c>
-      <c r="F152" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B153" t="s">
-        <v>2841</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1724</v>
-      </c>
-      <c r="F153" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2841</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1724</v>
-      </c>
-      <c r="F154" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2916</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B156" t="s">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B157" t="s">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B158" t="s">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B159" t="s">
-        <v>2988</v>
-      </c>
-      <c r="C159" t="s">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B160" t="s">
-        <v>2988</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B161" t="s">
-        <v>2981</v>
-      </c>
-      <c r="E161" t="s">
-        <v>61</v>
-      </c>
-      <c r="F161" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B162" t="s">
-        <v>2981</v>
-      </c>
-      <c r="E162" t="s">
-        <v>61</v>
-      </c>
-      <c r="F162" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B163" t="s">
-        <v>2981</v>
-      </c>
-      <c r="E163" t="s">
-        <v>61</v>
-      </c>
-      <c r="F163" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B164" t="s">
-        <v>2981</v>
-      </c>
-      <c r="E164" t="s">
-        <v>61</v>
-      </c>
-      <c r="F164" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B165" t="s">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B166" t="s">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B167" t="s">
-        <v>2970</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B168" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B169" t="s">
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B170" t="s">
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B171" t="s">
-        <v>2908</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B172" t="s">
-        <v>2822</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B173" t="s">
-        <v>2819</v>
-      </c>
-      <c r="D173" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B174" t="s">
-        <v>2967</v>
-      </c>
-      <c r="E174" t="s">
-        <v>3030</v>
-      </c>
-      <c r="F174" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B175" t="s">
-        <v>2967</v>
-      </c>
-      <c r="E175" t="s">
-        <v>3030</v>
-      </c>
-      <c r="F175" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B176" t="s">
-        <v>2967</v>
-      </c>
-      <c r="E176" t="s">
-        <v>3030</v>
-      </c>
-      <c r="F176" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B177" t="s">
-        <v>2967</v>
-      </c>
-      <c r="E177" t="s">
-        <v>3030</v>
-      </c>
-      <c r="F177" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B178" t="s">
-        <v>2836</v>
-      </c>
-      <c r="E178" t="s">
-        <v>2471</v>
-      </c>
-      <c r="F178" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B179" t="s">
-        <v>2836</v>
-      </c>
-      <c r="E179" t="s">
-        <v>2471</v>
-      </c>
-      <c r="F179" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B180" t="s">
-        <v>2836</v>
-      </c>
-      <c r="E180" t="s">
-        <v>2471</v>
-      </c>
-      <c r="F180" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B181" t="s">
-        <v>2836</v>
-      </c>
-      <c r="E181" t="s">
-        <v>2471</v>
-      </c>
-      <c r="F181" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B182" t="s">
-        <v>2836</v>
-      </c>
-      <c r="E182" t="s">
-        <v>2471</v>
-      </c>
-      <c r="F182" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B183" t="s">
-        <v>2836</v>
-      </c>
-      <c r="E183" t="s">
-        <v>2471</v>
-      </c>
-      <c r="F183" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B184" t="s">
-        <v>2994</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B185" t="s">
-        <v>2895</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B186" t="s">
-        <v>2860</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B187" t="s">
-        <v>2863</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B188" t="s">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B189" t="s">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B190" t="s">
-        <v>2986</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B191" t="s">
-        <v>2986</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B192" t="s">
-        <v>2986</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B193" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B194" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B195" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B196" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B197" t="s">
-        <v>2858</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B198" t="s">
-        <v>2859</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B199" t="s">
-        <v>2827</v>
-      </c>
-      <c r="D199" t="s">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B200" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B201" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B202" t="s">
-        <v>2919</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B203" t="s">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B204" t="s">
-        <v>2901</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B205" t="s">
-        <v>2881</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B206" t="s">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B207" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B208" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B209" t="s">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B210" t="s">
-        <v>2883</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B211" t="s">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B212" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B213" t="s">
-        <v>2884</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B214" t="s">
-        <v>2882</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B215" t="s">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B216" t="s">
-        <v>2877</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B217" t="s">
-        <v>2851</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B218" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B219" t="s">
-        <v>2958</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B220" t="s">
-        <v>2928</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B221" t="s">
-        <v>2959</v>
-      </c>
-      <c r="C221" s="4"/>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B222" t="s">
-        <v>2961</v>
-      </c>
-      <c r="C222" s="4"/>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B223" t="s">
-        <v>2861</v>
-      </c>
-      <c r="C223" s="4"/>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B224" t="s">
-        <v>2862</v>
-      </c>
-      <c r="C224" s="4"/>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B225" t="s">
-        <v>2856</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B226" t="s">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B227" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B228" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B229" t="s">
-        <v>2920</v>
-      </c>
+        <v>2546</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C68"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C229">
-    <sortCondition ref="B2:B229"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
